--- a/BackTest/2019-10-31 BackTest DAD.xlsx
+++ b/BackTest/2019-10-31 BackTest DAD.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>16</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.666666666666667</v>
+      </c>
       <c r="L12" t="n">
         <v>392.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>19</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L13" t="n">
         <v>392.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>22</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>46.66666666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>392.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>22</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L15" t="n">
         <v>393</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>23</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>393.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>25</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L17" t="n">
         <v>394</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>27</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>46.66666666666666</v>
+      </c>
       <c r="L18" t="n">
         <v>394.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>27</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>57.14285714285714</v>
+      </c>
       <c r="L19" t="n">
         <v>395.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>28</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>60</v>
+      </c>
       <c r="L20" t="n">
         <v>396.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>28</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21" t="n">
         <v>397.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>28</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>397.9</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>28</v>
       </c>
       <c r="K23" t="n">
-        <v>25.92592592592592</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>398.8</v>
@@ -1466,7 +1488,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>25.92592592592592</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>399.4</v>
@@ -1515,7 +1537,7 @@
         <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>61.90476190476191</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>400</v>
@@ -1564,7 +1586,7 @@
         <v>28</v>
       </c>
       <c r="K26" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>400.5</v>
@@ -1613,7 +1635,7 @@
         <v>28</v>
       </c>
       <c r="K27" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>400.8</v>
@@ -1662,7 +1684,7 @@
         <v>28</v>
       </c>
       <c r="K28" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>400.9</v>
@@ -1711,7 +1733,7 @@
         <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L29" t="n">
         <v>400.9</v>
@@ -1760,7 +1782,7 @@
         <v>29</v>
       </c>
       <c r="K30" t="n">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="L30" t="n">
         <v>400.8</v>
@@ -1809,7 +1831,7 @@
         <v>33</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L31" t="n">
         <v>400.3</v>
@@ -1860,7 +1882,7 @@
         <v>34</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" t="n">
         <v>399.7</v>
@@ -1911,7 +1933,7 @@
         <v>41</v>
       </c>
       <c r="K33" t="n">
-        <v>45.45454545454545</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L33" t="n">
         <v>399.8</v>
@@ -1962,7 +1984,7 @@
         <v>42</v>
       </c>
       <c r="K34" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>399.8</v>
@@ -2013,7 +2035,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="n">
-        <v>13.04347826086956</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L35" t="n">
         <v>399.5</v>
@@ -2064,7 +2086,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="n">
-        <v>13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L36" t="n">
         <v>399.3</v>
@@ -2115,7 +2137,7 @@
         <v>46</v>
       </c>
       <c r="K37" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L37" t="n">
         <v>399.1</v>
@@ -2166,7 +2188,7 @@
         <v>46</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.263157894736842</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L38" t="n">
         <v>398.9</v>
@@ -2217,7 +2239,7 @@
         <v>52</v>
       </c>
       <c r="K39" t="n">
-        <v>-28</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L39" t="n">
         <v>398.2</v>
@@ -2268,7 +2290,7 @@
         <v>55</v>
       </c>
       <c r="K40" t="n">
-        <v>-18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>397.8</v>
@@ -2319,7 +2341,7 @@
         <v>59</v>
       </c>
       <c r="K41" t="n">
-        <v>-3.225806451612903</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>398.2</v>
@@ -2370,7 +2392,7 @@
         <v>63</v>
       </c>
       <c r="K42" t="n">
-        <v>8.571428571428571</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L42" t="n">
         <v>399.1</v>
@@ -2421,7 +2443,7 @@
         <v>69</v>
       </c>
       <c r="K43" t="n">
-        <v>21.95121951219512</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>399.9</v>
@@ -2472,7 +2494,7 @@
         <v>75</v>
       </c>
       <c r="K44" t="n">
-        <v>31.91489361702128</v>
+        <v>60</v>
       </c>
       <c r="L44" t="n">
         <v>401.4</v>
@@ -2523,7 +2545,7 @@
         <v>75</v>
       </c>
       <c r="K45" t="n">
-        <v>31.91489361702128</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L45" t="n">
         <v>403.2</v>
@@ -2574,7 +2596,7 @@
         <v>77</v>
       </c>
       <c r="K46" t="n">
-        <v>34.69387755102041</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L46" t="n">
         <v>405.1</v>
@@ -2625,7 +2647,7 @@
         <v>77</v>
       </c>
       <c r="K47" t="n">
-        <v>34.69387755102041</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L47" t="n">
         <v>407</v>
@@ -2676,7 +2698,7 @@
         <v>77</v>
       </c>
       <c r="K48" t="n">
-        <v>34.69387755102041</v>
+        <v>100</v>
       </c>
       <c r="L48" t="n">
         <v>408.9</v>
@@ -2727,7 +2749,7 @@
         <v>77</v>
       </c>
       <c r="K49" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L49" t="n">
         <v>411.4</v>
@@ -2778,7 +2800,7 @@
         <v>77</v>
       </c>
       <c r="K50" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>413.6</v>
@@ -2829,7 +2851,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>415.4</v>
@@ -2880,7 +2902,7 @@
         <v>77</v>
       </c>
       <c r="K52" t="n">
-        <v>53.48837209302325</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>416.8</v>
@@ -2931,7 +2953,7 @@
         <v>79</v>
       </c>
       <c r="K53" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>417.4</v>
@@ -2982,7 +3004,7 @@
         <v>79</v>
       </c>
       <c r="K54" t="n">
-        <v>40.54054054054054</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>417.4</v>
@@ -3033,7 +3055,7 @@
         <v>80</v>
       </c>
       <c r="K55" t="n">
-        <v>48.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L55" t="n">
         <v>417.3</v>
@@ -3084,7 +3106,7 @@
         <v>80</v>
       </c>
       <c r="K56" t="n">
-        <v>47.05882352941176</v>
+        <v>-100</v>
       </c>
       <c r="L56" t="n">
         <v>417</v>
@@ -3135,7 +3157,7 @@
         <v>84</v>
       </c>
       <c r="K57" t="n">
-        <v>31.57894736842105</v>
+        <v>-100</v>
       </c>
       <c r="L57" t="n">
         <v>416.3</v>
@@ -3186,7 +3208,7 @@
         <v>86</v>
       </c>
       <c r="K58" t="n">
-        <v>35</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L58" t="n">
         <v>415.8</v>
@@ -3237,7 +3259,7 @@
         <v>86</v>
       </c>
       <c r="K59" t="n">
-        <v>58.82352941176471</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L59" t="n">
         <v>415.3</v>
@@ -3288,7 +3310,7 @@
         <v>87</v>
       </c>
       <c r="K60" t="n">
-        <v>56.25</v>
+        <v>-40</v>
       </c>
       <c r="L60" t="n">
         <v>414.9</v>
@@ -3339,7 +3361,7 @@
         <v>87</v>
       </c>
       <c r="K61" t="n">
-        <v>50</v>
+        <v>-40</v>
       </c>
       <c r="L61" t="n">
         <v>414.5</v>
@@ -3390,7 +3412,7 @@
         <v>87</v>
       </c>
       <c r="K62" t="n">
-        <v>41.66666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L62" t="n">
         <v>414.1</v>
@@ -3441,7 +3463,7 @@
         <v>87</v>
       </c>
       <c r="K63" t="n">
-        <v>22.22222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L63" t="n">
         <v>413.9</v>
@@ -3492,7 +3514,7 @@
         <v>87</v>
       </c>
       <c r="K64" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>413.7</v>
@@ -3543,7 +3565,7 @@
         <v>87</v>
       </c>
       <c r="K65" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L65" t="n">
         <v>413.6</v>
@@ -3594,7 +3616,7 @@
         <v>91</v>
       </c>
       <c r="K66" t="n">
-        <v>-57.14285714285714</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L66" t="n">
         <v>413.1</v>
@@ -3645,7 +3667,7 @@
         <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>-73.91304347826086</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L67" t="n">
         <v>412.1</v>
@@ -3696,7 +3718,7 @@
         <v>104</v>
       </c>
       <c r="K68" t="n">
-        <v>-77.77777777777779</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L68" t="n">
         <v>410.5</v>
@@ -3747,7 +3769,7 @@
         <v>111</v>
       </c>
       <c r="K69" t="n">
-        <v>-41.17647058823529</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L69" t="n">
         <v>409.6</v>
@@ -3798,7 +3820,7 @@
         <v>116</v>
       </c>
       <c r="K70" t="n">
-        <v>-48.71794871794872</v>
+        <v>-51.72413793103448</v>
       </c>
       <c r="L70" t="n">
         <v>408.1</v>
@@ -3849,7 +3871,7 @@
         <v>121</v>
       </c>
       <c r="K71" t="n">
-        <v>-31.81818181818182</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L71" t="n">
         <v>407.1</v>
@@ -3900,7 +3922,7 @@
         <v>123</v>
       </c>
       <c r="K72" t="n">
-        <v>-26.08695652173913</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L72" t="n">
         <v>406.3</v>
@@ -3951,7 +3973,7 @@
         <v>123</v>
       </c>
       <c r="K73" t="n">
-        <v>-22.72727272727273</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L73" t="n">
         <v>405.5</v>
@@ -4002,7 +4024,7 @@
         <v>123</v>
       </c>
       <c r="K74" t="n">
-        <v>-22.72727272727273</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L74" t="n">
         <v>404.7</v>
@@ -4053,7 +4075,7 @@
         <v>124</v>
       </c>
       <c r="K75" t="n">
-        <v>-22.72727272727273</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L75" t="n">
         <v>403.8</v>
@@ -4104,7 +4126,7 @@
         <v>127</v>
       </c>
       <c r="K76" t="n">
-        <v>-27.65957446808511</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L76" t="n">
         <v>403</v>
@@ -4155,7 +4177,7 @@
         <v>132</v>
       </c>
       <c r="K77" t="n">
-        <v>-29.16666666666667</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>402.6</v>
@@ -4206,7 +4228,7 @@
         <v>138</v>
       </c>
       <c r="K78" t="n">
-        <v>-19.23076923076923</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L78" t="n">
         <v>403.2</v>
@@ -4257,7 +4279,7 @@
         <v>138</v>
       </c>
       <c r="K79" t="n">
-        <v>-19.23076923076923</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L79" t="n">
         <v>403.1</v>
@@ -4308,7 +4330,7 @@
         <v>138</v>
       </c>
       <c r="K80" t="n">
-        <v>-21.56862745098039</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L80" t="n">
         <v>403.5</v>
@@ -4359,7 +4381,7 @@
         <v>143</v>
       </c>
       <c r="K81" t="n">
-        <v>-28.57142857142857</v>
+        <v>-40</v>
       </c>
       <c r="L81" t="n">
         <v>402.9</v>
@@ -4410,7 +4432,7 @@
         <v>148</v>
       </c>
       <c r="K82" t="n">
-        <v>-18.0327868852459</v>
+        <v>-12</v>
       </c>
       <c r="L82" t="n">
         <v>402.6</v>
@@ -4461,7 +4483,7 @@
         <v>150</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.28571428571428</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L83" t="n">
         <v>402.5</v>
@@ -4516,7 +4538,7 @@
         <v>151</v>
       </c>
       <c r="K84" t="n">
-        <v>-12.5</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L84" t="n">
         <v>402.5</v>
@@ -4573,7 +4595,7 @@
         <v>151</v>
       </c>
       <c r="K85" t="n">
-        <v>-12.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>402.6</v>
@@ -4630,7 +4652,7 @@
         <v>151</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.666666666666667</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L86" t="n">
         <v>403</v>
@@ -4687,7 +4709,7 @@
         <v>155</v>
       </c>
       <c r="K87" t="n">
-        <v>1.818181818181818</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L87" t="n">
         <v>403.5</v>
@@ -4746,7 +4768,7 @@
         <v>156</v>
       </c>
       <c r="K88" t="n">
-        <v>7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L88" t="n">
         <v>403.3</v>
@@ -4801,7 +4823,7 @@
         <v>158</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.127659574468085</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>403.3</v>
@@ -4860,7 +4882,7 @@
         <v>160</v>
       </c>
       <c r="K90" t="n">
-        <v>4.545454545454546</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L90" t="n">
         <v>403.1</v>
@@ -4923,7 +4945,7 @@
         <v>161</v>
       </c>
       <c r="K91" t="n">
-        <v>-10</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L91" t="n">
         <v>403.3</v>
@@ -4986,7 +5008,7 @@
         <v>161</v>
       </c>
       <c r="K92" t="n">
-        <v>-15.78947368421053</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L92" t="n">
         <v>403</v>
@@ -5049,7 +5071,7 @@
         <v>161</v>
       </c>
       <c r="K93" t="n">
-        <v>-15.78947368421053</v>
+        <v>-60</v>
       </c>
       <c r="L93" t="n">
         <v>402.5</v>
@@ -5112,7 +5134,7 @@
         <v>162</v>
       </c>
       <c r="K94" t="n">
-        <v>-12.82051282051282</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L94" t="n">
         <v>402</v>
@@ -5175,7 +5197,7 @@
         <v>162</v>
       </c>
       <c r="K95" t="n">
-        <v>-10.52631578947368</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L95" t="n">
         <v>401.5</v>
@@ -5236,7 +5258,7 @@
         <v>163</v>
       </c>
       <c r="K96" t="n">
-        <v>-5.555555555555555</v>
+        <v>-25</v>
       </c>
       <c r="L96" t="n">
         <v>400.9</v>
@@ -5295,7 +5317,7 @@
         <v>164</v>
       </c>
       <c r="K97" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>400.8</v>
@@ -5358,7 +5380,7 @@
         <v>168</v>
       </c>
       <c r="K98" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>401.2</v>
@@ -5421,7 +5443,7 @@
         <v>177</v>
       </c>
       <c r="K99" t="n">
-        <v>28.2051282051282</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L99" t="n">
         <v>402.3</v>
@@ -5484,7 +5506,7 @@
         <v>178</v>
       </c>
       <c r="K100" t="n">
-        <v>30</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L100" t="n">
         <v>403.7</v>
@@ -5547,7 +5569,7 @@
         <v>182</v>
       </c>
       <c r="K101" t="n">
-        <v>53.84615384615385</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L101" t="n">
         <v>405.6</v>
@@ -5610,7 +5632,7 @@
         <v>183</v>
       </c>
       <c r="K102" t="n">
-        <v>42.85714285714285</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L102" t="n">
         <v>407.4</v>
@@ -5669,7 +5691,7 @@
         <v>183</v>
       </c>
       <c r="K103" t="n">
-        <v>39.39393939393939</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L103" t="n">
         <v>409.2</v>
@@ -5728,7 +5750,7 @@
         <v>183</v>
       </c>
       <c r="K104" t="n">
-        <v>37.5</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L104" t="n">
         <v>410.9</v>
@@ -5787,7 +5809,7 @@
         <v>186</v>
       </c>
       <c r="K105" t="n">
-        <v>25.71428571428571</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L105" t="n">
         <v>412.3</v>
@@ -5846,7 +5868,7 @@
         <v>193</v>
       </c>
       <c r="K106" t="n">
-        <v>4.761904761904762</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L106" t="n">
         <v>413.1</v>
@@ -5901,7 +5923,7 @@
         <v>196</v>
       </c>
       <c r="K107" t="n">
-        <v>7.317073170731707</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>413.5</v>
@@ -5958,7 +5980,7 @@
         <v>197</v>
       </c>
       <c r="K108" t="n">
-        <v>12.19512195121951</v>
+        <v>-40</v>
       </c>
       <c r="L108" t="n">
         <v>413.6</v>
@@ -6017,7 +6039,7 @@
         <v>197</v>
       </c>
       <c r="K109" t="n">
-        <v>7.692307692307693</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L109" t="n">
         <v>412.8</v>
@@ -6080,7 +6102,7 @@
         <v>199</v>
       </c>
       <c r="K110" t="n">
-        <v>7.692307692307693</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L110" t="n">
         <v>411.7</v>
@@ -6141,7 +6163,7 @@
         <v>199</v>
       </c>
       <c r="K111" t="n">
-        <v>10.52631578947368</v>
+        <v>-87.5</v>
       </c>
       <c r="L111" t="n">
         <v>410.2</v>
@@ -6202,7 +6224,7 @@
         <v>200</v>
       </c>
       <c r="K112" t="n">
-        <v>7.692307692307693</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L112" t="n">
         <v>408.7</v>
@@ -6263,7 +6285,7 @@
         <v>202</v>
       </c>
       <c r="K113" t="n">
-        <v>2.439024390243902</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L113" t="n">
         <v>407</v>
@@ -6322,7 +6344,7 @@
         <v>202</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>-87.5</v>
       </c>
       <c r="L114" t="n">
         <v>405.3</v>
@@ -6379,7 +6401,7 @@
         <v>202</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L115" t="n">
         <v>403.9</v>
@@ -6436,7 +6458,7 @@
         <v>204</v>
       </c>
       <c r="K116" t="n">
-        <v>7.317073170731707</v>
+        <v>-25</v>
       </c>
       <c r="L116" t="n">
         <v>403.4</v>
@@ -6493,7 +6515,7 @@
         <v>206</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L117" t="n">
         <v>403</v>
@@ -6550,7 +6572,7 @@
         <v>206</v>
       </c>
       <c r="K118" t="n">
-        <v>-10.52631578947368</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L118" t="n">
         <v>402.5</v>
@@ -6607,7 +6629,7 @@
         <v>207</v>
       </c>
       <c r="K119" t="n">
-        <v>-46.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L119" t="n">
         <v>401.9</v>
@@ -6664,7 +6686,7 @@
         <v>207</v>
       </c>
       <c r="K120" t="n">
-        <v>-51.72413793103448</v>
+        <v>-50</v>
       </c>
       <c r="L120" t="n">
         <v>401.5</v>
@@ -6721,7 +6743,7 @@
         <v>207</v>
       </c>
       <c r="K121" t="n">
-        <v>-76</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L121" t="n">
         <v>401.1</v>
@@ -6778,7 +6800,7 @@
         <v>207</v>
       </c>
       <c r="K122" t="n">
-        <v>-75</v>
+        <v>-20</v>
       </c>
       <c r="L122" t="n">
         <v>400.8</v>
@@ -6835,7 +6857,7 @@
         <v>213</v>
       </c>
       <c r="K123" t="n">
-        <v>-40</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L123" t="n">
         <v>401.3</v>
@@ -6892,7 +6914,7 @@
         <v>214</v>
       </c>
       <c r="K124" t="n">
-        <v>-35.48387096774194</v>
+        <v>50</v>
       </c>
       <c r="L124" t="n">
         <v>401.9</v>
@@ -6949,7 +6971,7 @@
         <v>217</v>
       </c>
       <c r="K125" t="n">
-        <v>-16.12903225806452</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L125" t="n">
         <v>402.8</v>
@@ -7006,7 +7028,7 @@
         <v>217</v>
       </c>
       <c r="K126" t="n">
-        <v>8.333333333333332</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L126" t="n">
         <v>403.5</v>
@@ -7057,7 +7079,7 @@
         <v>218</v>
       </c>
       <c r="K127" t="n">
-        <v>18.18181818181818</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L127" t="n">
         <v>404.3</v>
@@ -7108,7 +7130,7 @@
         <v>218</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571428</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L128" t="n">
         <v>405.1</v>
@@ -7159,7 +7181,7 @@
         <v>218</v>
       </c>
       <c r="K129" t="n">
-        <v>14.28571428571428</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L129" t="n">
         <v>406</v>
@@ -7210,7 +7232,7 @@
         <v>218</v>
       </c>
       <c r="K130" t="n">
-        <v>26.31578947368421</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L130" t="n">
         <v>406.9</v>
@@ -7261,7 +7283,7 @@
         <v>218</v>
       </c>
       <c r="K131" t="n">
-        <v>26.31578947368421</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L131" t="n">
         <v>407.8</v>
@@ -7312,7 +7334,7 @@
         <v>222</v>
       </c>
       <c r="K132" t="n">
-        <v>45.45454545454545</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L132" t="n">
         <v>409.1</v>
@@ -7363,7 +7385,7 @@
         <v>222</v>
       </c>
       <c r="K133" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L133" t="n">
         <v>409.8</v>
@@ -7414,7 +7436,7 @@
         <v>224</v>
       </c>
       <c r="K134" t="n">
-        <v>63.63636363636363</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L134" t="n">
         <v>410.6</v>
@@ -7465,7 +7487,7 @@
         <v>224</v>
       </c>
       <c r="K135" t="n">
-        <v>63.63636363636363</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L135" t="n">
         <v>411.1</v>
@@ -7516,7 +7538,7 @@
         <v>224</v>
       </c>
       <c r="K136" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>411.6</v>
@@ -7567,7 +7589,7 @@
         <v>224</v>
       </c>
       <c r="K137" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>412.2</v>
@@ -7618,7 +7640,7 @@
         <v>224</v>
       </c>
       <c r="K138" t="n">
-        <v>77.77777777777779</v>
+        <v>100</v>
       </c>
       <c r="L138" t="n">
         <v>412.8</v>
@@ -7669,7 +7691,7 @@
         <v>224</v>
       </c>
       <c r="K139" t="n">
-        <v>88.23529411764706</v>
+        <v>100</v>
       </c>
       <c r="L139" t="n">
         <v>413.4</v>
@@ -7720,7 +7742,7 @@
         <v>224</v>
       </c>
       <c r="K140" t="n">
-        <v>88.23529411764706</v>
+        <v>100</v>
       </c>
       <c r="L140" t="n">
         <v>414</v>
@@ -7771,7 +7793,7 @@
         <v>224</v>
       </c>
       <c r="K141" t="n">
-        <v>88.23529411764706</v>
+        <v>100</v>
       </c>
       <c r="L141" t="n">
         <v>414.6</v>
@@ -7822,7 +7844,7 @@
         <v>225</v>
       </c>
       <c r="K142" t="n">
-        <v>77.77777777777779</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L142" t="n">
         <v>414.7</v>
@@ -7873,7 +7895,7 @@
         <v>231</v>
       </c>
       <c r="K143" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L143" t="n">
         <v>414.2</v>
@@ -7924,7 +7946,7 @@
         <v>234</v>
       </c>
       <c r="K144" t="n">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="L144" t="n">
         <v>413.2</v>
@@ -7975,7 +7997,7 @@
         <v>234</v>
       </c>
       <c r="K145" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L145" t="n">
         <v>412.2</v>
@@ -8026,7 +8048,7 @@
         <v>234</v>
       </c>
       <c r="K146" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L146" t="n">
         <v>411.2</v>
@@ -8081,7 +8103,7 @@
         <v>234</v>
       </c>
       <c r="K147" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L147" t="n">
         <v>410.2</v>
@@ -8140,7 +8162,7 @@
         <v>234</v>
       </c>
       <c r="K148" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L148" t="n">
         <v>409.2</v>
@@ -8199,7 +8221,7 @@
         <v>234</v>
       </c>
       <c r="K149" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L149" t="n">
         <v>408.2</v>
@@ -8258,7 +8280,7 @@
         <v>234</v>
       </c>
       <c r="K150" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>407.2</v>
@@ -8317,7 +8339,7 @@
         <v>234</v>
       </c>
       <c r="K151" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L151" t="n">
         <v>406.2</v>
@@ -8376,7 +8398,7 @@
         <v>234</v>
       </c>
       <c r="K152" t="n">
-        <v>-66.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>405.3</v>
@@ -8435,7 +8457,7 @@
         <v>238</v>
       </c>
       <c r="K153" t="n">
-        <v>-25</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>405.4</v>
@@ -8494,7 +8516,7 @@
         <v>238</v>
       </c>
       <c r="K154" t="n">
-        <v>-42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
         <v>405.8</v>
@@ -8553,7 +8575,7 @@
         <v>238</v>
       </c>
       <c r="K155" t="n">
-        <v>-42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>406.2</v>
@@ -8612,7 +8634,7 @@
         <v>238</v>
       </c>
       <c r="K156" t="n">
-        <v>-42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>406.6</v>
@@ -8667,7 +8689,7 @@
         <v>238</v>
       </c>
       <c r="K157" t="n">
-        <v>-42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
         <v>407</v>
@@ -8726,7 +8748,7 @@
         <v>238</v>
       </c>
       <c r="K158" t="n">
-        <v>-42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L158" t="n">
         <v>407.4</v>
@@ -8785,7 +8807,7 @@
         <v>240</v>
       </c>
       <c r="K159" t="n">
-        <v>-25</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>408</v>
@@ -8844,7 +8866,7 @@
         <v>240</v>
       </c>
       <c r="K160" t="n">
-        <v>-25</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>408.6</v>
@@ -8903,7 +8925,7 @@
         <v>248</v>
       </c>
       <c r="K161" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>410</v>
@@ -8962,7 +8984,7 @@
         <v>259</v>
       </c>
       <c r="K162" t="n">
-        <v>47.05882352941176</v>
+        <v>100</v>
       </c>
       <c r="L162" t="n">
         <v>412.5</v>
@@ -9021,7 +9043,7 @@
         <v>259</v>
       </c>
       <c r="K163" t="n">
-        <v>78.57142857142857</v>
+        <v>100</v>
       </c>
       <c r="L163" t="n">
         <v>414.6</v>
@@ -9371,7 +9393,7 @@
         <v>279</v>
       </c>
       <c r="K169" t="n">
-        <v>95.55555555555556</v>
+        <v>94.87179487179486</v>
       </c>
       <c r="L169" t="n">
         <v>437.5</v>
@@ -9430,7 +9452,7 @@
         <v>280</v>
       </c>
       <c r="K170" t="n">
-        <v>95.65217391304348</v>
+        <v>93.75</v>
       </c>
       <c r="L170" t="n">
         <v>441.3</v>
@@ -9489,7 +9511,7 @@
         <v>281</v>
       </c>
       <c r="K171" t="n">
-        <v>95.74468085106383</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L171" t="n">
         <v>444.4</v>
@@ -9548,7 +9570,7 @@
         <v>291</v>
       </c>
       <c r="K172" t="n">
-        <v>96.49122807017544</v>
+        <v>93.75</v>
       </c>
       <c r="L172" t="n">
         <v>447.4</v>
@@ -9607,7 +9629,7 @@
         <v>301</v>
       </c>
       <c r="K173" t="n">
-        <v>96.82539682539682</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>451.4</v>
@@ -9666,7 +9688,7 @@
         <v>314</v>
       </c>
       <c r="K174" t="n">
-        <v>97.36842105263158</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="L174" t="n">
         <v>455.5</v>
@@ -9725,7 +9747,7 @@
         <v>314</v>
       </c>
       <c r="K175" t="n">
-        <v>97.36842105263158</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="L175" t="n">
         <v>459</v>
@@ -9784,7 +9806,7 @@
         <v>326</v>
       </c>
       <c r="K176" t="n">
-        <v>97.72727272727273</v>
+        <v>95.83333333333334</v>
       </c>
       <c r="L176" t="n">
         <v>463.6</v>
@@ -9839,7 +9861,7 @@
         <v>332</v>
       </c>
       <c r="K177" t="n">
-        <v>97.87234042553192</v>
+        <v>96.29629629629629</v>
       </c>
       <c r="L177" t="n">
         <v>468.8</v>
@@ -9898,7 +9920,7 @@
         <v>332</v>
       </c>
       <c r="K178" t="n">
-        <v>97.87234042553192</v>
+        <v>100</v>
       </c>
       <c r="L178" t="n">
         <v>474</v>
@@ -9959,7 +9981,7 @@
         <v>343</v>
       </c>
       <c r="K179" t="n">
-        <v>98.05825242718447</v>
+        <v>100</v>
       </c>
       <c r="L179" t="n">
         <v>480.4</v>
@@ -10016,7 +10038,7 @@
         <v>355</v>
       </c>
       <c r="K180" t="n">
-        <v>77.39130434782608</v>
+        <v>67.56756756756756</v>
       </c>
       <c r="L180" t="n">
         <v>485.5</v>
@@ -10077,7 +10099,7 @@
         <v>371</v>
       </c>
       <c r="K181" t="n">
-        <v>52.84552845528455</v>
+        <v>30</v>
       </c>
       <c r="L181" t="n">
         <v>488.9</v>
@@ -10138,7 +10160,7 @@
         <v>376</v>
       </c>
       <c r="K182" t="n">
-        <v>41.88034188034188</v>
+        <v>12</v>
       </c>
       <c r="L182" t="n">
         <v>490.8</v>
@@ -10199,7 +10221,7 @@
         <v>387</v>
       </c>
       <c r="K183" t="n">
-        <v>46.875</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="L183" t="n">
         <v>492.8</v>
@@ -10258,7 +10280,7 @@
         <v>387</v>
       </c>
       <c r="K184" t="n">
-        <v>41.37931034482759</v>
+        <v>9.58904109589041</v>
       </c>
       <c r="L184" t="n">
         <v>493.5</v>
@@ -10321,7 +10343,7 @@
         <v>387</v>
       </c>
       <c r="K185" t="n">
-        <v>38.18181818181819</v>
+        <v>-8.196721311475409</v>
       </c>
       <c r="L185" t="n">
         <v>494.2</v>
@@ -10384,7 +10406,7 @@
         <v>408</v>
       </c>
       <c r="K186" t="n">
-        <v>47.69230769230769</v>
+        <v>13.1578947368421</v>
       </c>
       <c r="L186" t="n">
         <v>495.8</v>
@@ -10447,7 +10469,7 @@
         <v>418</v>
       </c>
       <c r="K187" t="n">
-        <v>51.42857142857142</v>
+        <v>23.25581395348837</v>
       </c>
       <c r="L187" t="n">
         <v>497.8</v>
@@ -10510,7 +10532,7 @@
         <v>421</v>
       </c>
       <c r="K188" t="n">
-        <v>52.44755244755245</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L188" t="n">
         <v>500.1</v>
@@ -10569,7 +10591,7 @@
         <v>434</v>
       </c>
       <c r="K189" t="n">
-        <v>57.41935483870968</v>
+        <v>46.83544303797468</v>
       </c>
       <c r="L189" t="n">
         <v>502.6</v>
@@ -10628,7 +10650,7 @@
         <v>450</v>
       </c>
       <c r="K190" t="n">
-        <v>61.1764705882353</v>
+        <v>87.34177215189874</v>
       </c>
       <c r="L190" t="n">
         <v>507.9</v>
@@ -10687,7 +10709,7 @@
         <v>467</v>
       </c>
       <c r="K191" t="n">
-        <v>64.51612903225806</v>
+        <v>100</v>
       </c>
       <c r="L191" t="n">
         <v>516.5</v>
@@ -10746,7 +10768,7 @@
         <v>487</v>
       </c>
       <c r="K192" t="n">
-        <v>45.91836734693878</v>
+        <v>60</v>
       </c>
       <c r="L192" t="n">
         <v>523.6</v>
@@ -10805,7 +10827,7 @@
         <v>499</v>
       </c>
       <c r="K193" t="n">
-        <v>46.46464646464646</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L193" t="n">
         <v>530.8</v>
@@ -10856,7 +10878,7 @@
         <v>503</v>
       </c>
       <c r="K194" t="n">
-        <v>43.91534391534391</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L194" t="n">
         <v>538.4</v>
@@ -10907,7 +10929,7 @@
         <v>512</v>
       </c>
       <c r="K195" t="n">
-        <v>46.46464646464646</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L195" t="n">
         <v>546.9</v>
@@ -10958,7 +10980,7 @@
         <v>519</v>
       </c>
       <c r="K196" t="n">
-        <v>45.07772020725388</v>
+        <v>60.3960396039604</v>
       </c>
       <c r="L196" t="n">
         <v>554</v>
@@ -11009,7 +11031,7 @@
         <v>524</v>
       </c>
       <c r="K197" t="n">
-        <v>39.58333333333333</v>
+        <v>51.45631067961165</v>
       </c>
       <c r="L197" t="n">
         <v>559.6</v>
@@ -11060,7 +11082,7 @@
         <v>541</v>
       </c>
       <c r="K198" t="n">
-        <v>28.22966507177033</v>
+        <v>21.49532710280374</v>
       </c>
       <c r="L198" t="n">
         <v>563.2</v>
@@ -11111,7 +11133,7 @@
         <v>559</v>
       </c>
       <c r="K199" t="n">
-        <v>30.55555555555556</v>
+        <v>22.93577981651376</v>
       </c>
       <c r="L199" t="n">
         <v>567.3</v>
@@ -11162,7 +11184,7 @@
         <v>572</v>
       </c>
       <c r="K200" t="n">
-        <v>29.95391705069124</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L200" t="n">
         <v>568.5</v>
@@ -11213,7 +11235,7 @@
         <v>617</v>
       </c>
       <c r="K201" t="n">
-        <v>51.21951219512195</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L201" t="n">
         <v>572.5</v>
@@ -11264,7 +11286,7 @@
         <v>680</v>
       </c>
       <c r="K202" t="n">
-        <v>63.81578947368421</v>
+        <v>61.32596685082873</v>
       </c>
       <c r="L202" t="n">
         <v>584.8</v>
@@ -11315,7 +11337,7 @@
         <v>753</v>
       </c>
       <c r="K203" t="n">
-        <v>30.05464480874317</v>
+        <v>13.6</v>
       </c>
       <c r="L203" t="n">
         <v>588.6</v>
@@ -11366,7 +11388,7 @@
         <v>778</v>
       </c>
       <c r="K204" t="n">
-        <v>34.52685421994885</v>
+        <v>18.79699248120301</v>
       </c>
       <c r="L204" t="n">
         <v>594.5</v>
@@ -11417,7 +11439,7 @@
         <v>790</v>
       </c>
       <c r="K205" t="n">
-        <v>30.52109181141439</v>
+        <v>11.43911439114391</v>
       </c>
       <c r="L205" t="n">
         <v>598.3</v>
@@ -11468,7 +11490,7 @@
         <v>804</v>
       </c>
       <c r="K206" t="n">
-        <v>22.22222222222222</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="L206" t="n">
         <v>600</v>
@@ -11519,7 +11541,7 @@
         <v>818</v>
       </c>
       <c r="K207" t="n">
-        <v>16</v>
+        <v>9.025270758122744</v>
       </c>
       <c r="L207" t="n">
         <v>600.8</v>
@@ -11570,7 +11592,7 @@
         <v>833</v>
       </c>
       <c r="K208" t="n">
-        <v>11.16504854368932</v>
+        <v>-2.91970802919708</v>
       </c>
       <c r="L208" t="n">
         <v>601.8</v>
@@ -11621,7 +11643,7 @@
         <v>857</v>
       </c>
       <c r="K209" t="n">
-        <v>2.127659574468085</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L209" t="n">
         <v>598.6</v>
@@ -11672,7 +11694,7 @@
         <v>876</v>
       </c>
       <c r="K210" t="n">
-        <v>-6.103286384976526</v>
+        <v>-32.04633204633205</v>
       </c>
       <c r="L210" t="n">
         <v>594.8</v>
@@ -11723,7 +11745,7 @@
         <v>883</v>
       </c>
       <c r="K211" t="n">
-        <v>-8.653846153846153</v>
+        <v>-68.4729064039409</v>
       </c>
       <c r="L211" t="n">
         <v>587.2</v>
@@ -11774,7 +11796,7 @@
         <v>901</v>
       </c>
       <c r="K212" t="n">
-        <v>-8.212560386473431</v>
+        <v>-56.75675675675676</v>
       </c>
       <c r="L212" t="n">
         <v>571.5</v>
@@ -11825,7 +11847,7 @@
         <v>903</v>
       </c>
       <c r="K213" t="n">
-        <v>-10.89108910891089</v>
+        <v>-85.59999999999999</v>
       </c>
       <c r="L213" t="n">
         <v>563.3</v>
@@ -11876,7 +11898,7 @@
         <v>908</v>
       </c>
       <c r="K214" t="n">
-        <v>-10.61728395061728</v>
+        <v>-76.27118644067797</v>
       </c>
       <c r="L214" t="n">
         <v>553.1</v>
@@ -11927,7 +11949,7 @@
         <v>913</v>
       </c>
       <c r="K215" t="n">
-        <v>-14.214463840399</v>
+        <v>-74.31192660550458</v>
       </c>
       <c r="L215" t="n">
         <v>543.6</v>
@@ -11978,7 +12000,7 @@
         <v>926</v>
       </c>
       <c r="K216" t="n">
-        <v>-12.53071253071253</v>
+        <v>-50</v>
       </c>
       <c r="L216" t="n">
         <v>536.8</v>
@@ -12033,7 +12055,7 @@
         <v>938</v>
       </c>
       <c r="K217" t="n">
-        <v>-8.212560386473431</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L217" t="n">
         <v>532.6</v>
@@ -12090,7 +12112,7 @@
         <v>949</v>
       </c>
       <c r="K218" t="n">
-        <v>-6.862745098039216</v>
+        <v>-15.21739130434783</v>
       </c>
       <c r="L218" t="n">
         <v>528.8</v>
@@ -12149,7 +12171,7 @@
         <v>957</v>
       </c>
       <c r="K219" t="n">
-        <v>-9.547738693467336</v>
+        <v>16.04938271604938</v>
       </c>
       <c r="L219" t="n">
         <v>528.2</v>
@@ -12206,7 +12228,7 @@
         <v>962</v>
       </c>
       <c r="K220" t="n">
-        <v>-5.128205128205128</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="L220" t="n">
         <v>530</v>
@@ -12265,7 +12287,7 @@
         <v>966</v>
       </c>
       <c r="K221" t="n">
-        <v>-19.77077363896848</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L221" t="n">
         <v>530.7</v>
@@ -12322,7 +12344,7 @@
         <v>983</v>
       </c>
       <c r="K222" t="n">
-        <v>-49.17491749174918</v>
+        <v>7.5</v>
       </c>
       <c r="L222" t="n">
         <v>531.5</v>
@@ -12379,7 +12401,7 @@
         <v>995</v>
       </c>
       <c r="K223" t="n">
-        <v>-26.44628099173554</v>
+        <v>14.94252873563219</v>
       </c>
       <c r="L223" t="n">
         <v>533.3</v>
@@ -12436,7 +12458,7 @@
         <v>1014</v>
       </c>
       <c r="K224" t="n">
-        <v>-29.66101694915254</v>
+        <v>36.63366336633663</v>
       </c>
       <c r="L224" t="n">
         <v>536.5</v>
@@ -12493,7 +12515,7 @@
         <v>1021</v>
       </c>
       <c r="K225" t="n">
-        <v>-22.07792207792208</v>
+        <v>32.63157894736842</v>
       </c>
       <c r="L225" t="n">
         <v>540.9</v>
@@ -12550,7 +12572,7 @@
         <v>1034</v>
       </c>
       <c r="K226" t="n">
-        <v>-10.43478260869565</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L226" t="n">
         <v>545.3</v>
@@ -12601,7 +12623,7 @@
         <v>1066</v>
       </c>
       <c r="K227" t="n">
-        <v>-16.93548387096774</v>
+        <v>9.401709401709402</v>
       </c>
       <c r="L227" t="n">
         <v>545.3</v>
@@ -12652,7 +12674,7 @@
         <v>1068</v>
       </c>
       <c r="K228" t="n">
-        <v>-10.63829787234043</v>
+        <v>4.504504504504505</v>
       </c>
       <c r="L228" t="n">
         <v>546.6</v>
@@ -12703,7 +12725,7 @@
         <v>1076</v>
       </c>
       <c r="K229" t="n">
-        <v>-4.10958904109589</v>
+        <v>-7.017543859649122</v>
       </c>
       <c r="L229" t="n">
         <v>546.3</v>
@@ -12754,7 +12776,7 @@
         <v>1079</v>
       </c>
       <c r="K230" t="n">
-        <v>6.403940886699508</v>
+        <v>-0.8849557522123894</v>
       </c>
       <c r="L230" t="n">
         <v>545.8</v>
@@ -12805,7 +12827,7 @@
         <v>1092</v>
       </c>
       <c r="K231" t="n">
-        <v>9.090909090909092</v>
+        <v>26.60550458715597</v>
       </c>
       <c r="L231" t="n">
         <v>547</v>
@@ -12856,7 +12878,7 @@
         <v>1096</v>
       </c>
       <c r="K232" t="n">
-        <v>16.92307692307692</v>
+        <v>12.87128712871287</v>
       </c>
       <c r="L232" t="n">
         <v>549.5</v>
@@ -12907,7 +12929,7 @@
         <v>1112</v>
       </c>
       <c r="K233" t="n">
-        <v>7.177033492822966</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L233" t="n">
         <v>549.2</v>
@@ -12958,7 +12980,7 @@
         <v>1115</v>
       </c>
       <c r="K234" t="n">
-        <v>3.381642512077295</v>
+        <v>-34.04255319148936</v>
       </c>
       <c r="L234" t="n">
         <v>546.7</v>
@@ -13009,7 +13031,7 @@
         <v>1121</v>
       </c>
       <c r="K235" t="n">
-        <v>8.653846153846153</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L235" t="n">
         <v>544.1</v>
@@ -13060,7 +13082,7 @@
         <v>1132</v>
       </c>
       <c r="K236" t="n">
-        <v>-2.912621359223301</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L236" t="n">
         <v>539.1</v>
@@ -13111,7 +13133,7 @@
         <v>1134</v>
       </c>
       <c r="K237" t="n">
-        <v>-8.163265306122449</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L237" t="n">
         <v>537.5</v>
@@ -13162,7 +13184,7 @@
         <v>1145</v>
       </c>
       <c r="K238" t="n">
-        <v>-8.163265306122449</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L238" t="n">
         <v>534.6</v>
@@ -13213,7 +13235,7 @@
         <v>1155</v>
       </c>
       <c r="K239" t="n">
-        <v>-7.07070707070707</v>
+        <v>-18.42105263157895</v>
       </c>
       <c r="L239" t="n">
         <v>533.5</v>
@@ -13264,7 +13286,7 @@
         <v>1173</v>
       </c>
       <c r="K240" t="n">
-        <v>-17.53554502369668</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L240" t="n">
         <v>530.3</v>
@@ -13315,7 +13337,7 @@
         <v>1186</v>
       </c>
       <c r="K241" t="n">
-        <v>-9.090909090909092</v>
+        <v>-31.11111111111111</v>
       </c>
       <c r="L241" t="n">
         <v>527.1</v>
@@ -13366,7 +13388,7 @@
         <v>1192</v>
       </c>
       <c r="K242" t="n">
-        <v>-4.30622009569378</v>
+        <v>-22.5</v>
       </c>
       <c r="L242" t="n">
         <v>523.7</v>
@@ -13417,7 +13439,7 @@
         <v>1194</v>
       </c>
       <c r="K243" t="n">
-        <v>-11.55778894472362</v>
+        <v>-21.51898734177215</v>
       </c>
       <c r="L243" t="n">
         <v>521.7</v>
@@ -13468,7 +13490,7 @@
         <v>1199</v>
       </c>
       <c r="K244" t="n">
-        <v>-25.40540540540541</v>
+        <v>-35.8974358974359</v>
       </c>
       <c r="L244" t="n">
         <v>519.5</v>
@@ -13570,7 +13592,7 @@
         <v>1218</v>
       </c>
       <c r="K246" t="n">
-        <v>-46.73913043478261</v>
+        <v>-45.23809523809524</v>
       </c>
       <c r="L246" t="n">
         <v>512.3</v>
@@ -13621,7 +13643,7 @@
         <v>1224</v>
       </c>
       <c r="K247" t="n">
-        <v>-30.37974683544304</v>
+        <v>-26.58227848101265</v>
       </c>
       <c r="L247" t="n">
         <v>509.1</v>
@@ -13672,7 +13694,7 @@
         <v>1229</v>
       </c>
       <c r="K248" t="n">
-        <v>-34.16149068322981</v>
+        <v>-48.64864864864865</v>
       </c>
       <c r="L248" t="n">
         <v>506.5</v>
@@ -13723,7 +13745,7 @@
         <v>1234</v>
       </c>
       <c r="K249" t="n">
-        <v>-26.58227848101265</v>
+        <v>-21.31147540983606</v>
       </c>
       <c r="L249" t="n">
         <v>503.4</v>
@@ -13774,7 +13796,7 @@
         <v>1243</v>
       </c>
       <c r="K250" t="n">
-        <v>-32.92682926829269</v>
+        <v>-61.40350877192983</v>
       </c>
       <c r="L250" t="n">
         <v>501.2</v>
@@ -13825,7 +13847,7 @@
         <v>1246</v>
       </c>
       <c r="K251" t="n">
-        <v>-41.55844155844156</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L251" t="n">
         <v>498</v>
@@ -13876,7 +13898,7 @@
         <v>1250</v>
       </c>
       <c r="K252" t="n">
-        <v>-41.55844155844156</v>
+        <v>-50</v>
       </c>
       <c r="L252" t="n">
         <v>495</v>
@@ -13927,7 +13949,7 @@
         <v>1255</v>
       </c>
       <c r="K253" t="n">
-        <v>-37.06293706293706</v>
+        <v>-50</v>
       </c>
       <c r="L253" t="n">
         <v>491.7</v>
@@ -13978,7 +14000,7 @@
         <v>1256</v>
       </c>
       <c r="K254" t="n">
-        <v>-36.17021276595745</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L254" t="n">
         <v>488.8</v>
@@ -14029,7 +14051,7 @@
         <v>1257</v>
       </c>
       <c r="K255" t="n">
-        <v>-41.17647058823529</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L255" t="n">
         <v>486.8</v>
@@ -14080,7 +14102,7 @@
         <v>1260</v>
       </c>
       <c r="K256" t="n">
-        <v>-32.8125</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>486.2</v>
@@ -14131,7 +14153,7 @@
         <v>1262</v>
       </c>
       <c r="K257" t="n">
-        <v>-35.9375</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L257" t="n">
         <v>484.8</v>
@@ -14182,7 +14204,7 @@
         <v>1265</v>
       </c>
       <c r="K258" t="n">
-        <v>-31.66666666666666</v>
+        <v>-54.83870967741935</v>
       </c>
       <c r="L258" t="n">
         <v>483.6</v>
@@ -14233,7 +14255,7 @@
         <v>1271</v>
       </c>
       <c r="K259" t="n">
-        <v>-36.20689655172414</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L259" t="n">
         <v>482.5</v>
@@ -14284,7 +14306,7 @@
         <v>1300</v>
       </c>
       <c r="K260" t="n">
-        <v>3.937007874015748</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L260" t="n">
         <v>485.2</v>
@@ -14335,7 +14357,7 @@
         <v>1307</v>
       </c>
       <c r="K261" t="n">
-        <v>-12.39669421487603</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L261" t="n">
         <v>486.9</v>
@@ -14386,7 +14408,7 @@
         <v>1317</v>
       </c>
       <c r="K262" t="n">
-        <v>-15.2</v>
+        <v>25.80645161290322</v>
       </c>
       <c r="L262" t="n">
         <v>488</v>
@@ -14437,7 +14459,7 @@
         <v>1326</v>
       </c>
       <c r="K263" t="n">
-        <v>-6.060606060606061</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L263" t="n">
         <v>490.5</v>
@@ -14488,7 +14510,7 @@
         <v>1336</v>
       </c>
       <c r="K264" t="n">
-        <v>5.109489051094891</v>
+        <v>44.30379746835442</v>
       </c>
       <c r="L264" t="n">
         <v>494.1</v>
@@ -14539,7 +14561,7 @@
         <v>1337</v>
       </c>
       <c r="K265" t="n">
-        <v>10.76923076923077</v>
+        <v>40.25974025974026</v>
       </c>
       <c r="L265" t="n">
         <v>497.5</v>
@@ -14590,7 +14612,7 @@
         <v>1341</v>
       </c>
       <c r="K266" t="n">
-        <v>23.57723577235772</v>
+        <v>46.83544303797468</v>
       </c>
       <c r="L266" t="n">
         <v>501</v>
@@ -14641,7 +14663,7 @@
         <v>1348</v>
       </c>
       <c r="K267" t="n">
-        <v>24.19354838709678</v>
+        <v>56.62650602409639</v>
       </c>
       <c r="L267" t="n">
         <v>505.4</v>
@@ -14692,7 +14714,7 @@
         <v>1349</v>
       </c>
       <c r="K268" t="n">
-        <v>28.33333333333333</v>
+        <v>51.28205128205128</v>
       </c>
       <c r="L268" t="n">
         <v>510</v>
@@ -14743,7 +14765,7 @@
         <v>1353</v>
       </c>
       <c r="K269" t="n">
-        <v>21.00840336134454</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L269" t="n">
         <v>513.6</v>
@@ -14794,7 +14816,7 @@
         <v>1357</v>
       </c>
       <c r="K270" t="n">
-        <v>26.31578947368421</v>
+        <v>20</v>
       </c>
       <c r="L270" t="n">
         <v>513.9</v>
@@ -14845,7 +14867,7 @@
         <v>1358</v>
       </c>
       <c r="K271" t="n">
-        <v>23.21428571428572</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L271" t="n">
         <v>514.8</v>
@@ -14896,7 +14918,7 @@
         <v>1364</v>
       </c>
       <c r="K272" t="n">
-        <v>21.05263157894737</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L272" t="n">
         <v>516.1</v>
@@ -14947,7 +14969,7 @@
         <v>1367</v>
       </c>
       <c r="K273" t="n">
-        <v>23.21428571428572</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L273" t="n">
         <v>516.2</v>
@@ -14998,7 +15020,7 @@
         <v>1371</v>
       </c>
       <c r="K274" t="n">
-        <v>26.95652173913043</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L274" t="n">
         <v>515.7</v>
@@ -15049,7 +15071,7 @@
         <v>1373</v>
       </c>
       <c r="K275" t="n">
-        <v>27.58620689655172</v>
+        <v>-18.75</v>
       </c>
       <c r="L275" t="n">
         <v>515.5</v>
@@ -15100,7 +15122,7 @@
         <v>1379</v>
       </c>
       <c r="K276" t="n">
-        <v>19.32773109243698</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L276" t="n">
         <v>514.3</v>
@@ -15151,7 +15173,7 @@
         <v>1385</v>
       </c>
       <c r="K277" t="n">
-        <v>15.44715447154472</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L277" t="n">
         <v>511.8</v>
@@ -15202,7 +15224,7 @@
         <v>1386</v>
       </c>
       <c r="K278" t="n">
-        <v>19.00826446280992</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L278" t="n">
         <v>509.5</v>
@@ -15253,7 +15275,7 @@
         <v>1389</v>
       </c>
       <c r="K279" t="n">
-        <v>16.94915254237288</v>
+        <v>-37.5</v>
       </c>
       <c r="L279" t="n">
         <v>507.9</v>
@@ -15304,7 +15326,7 @@
         <v>1392</v>
       </c>
       <c r="K280" t="n">
-        <v>-13.04347826086956</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L280" t="n">
         <v>506.4</v>
@@ -15355,7 +15377,7 @@
         <v>1395</v>
       </c>
       <c r="K281" t="n">
-        <v>-2.272727272727273</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L281" t="n">
         <v>505.3</v>
@@ -15406,7 +15428,7 @@
         <v>1395</v>
       </c>
       <c r="K282" t="n">
-        <v>10.25641025641026</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L282" t="n">
         <v>504.8</v>
@@ -15457,7 +15479,7 @@
         <v>1397</v>
       </c>
       <c r="K283" t="n">
-        <v>-4.225352112676056</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L283" t="n">
         <v>504.4</v>
@@ -15508,7 +15530,7 @@
         <v>1397</v>
       </c>
       <c r="K284" t="n">
-        <v>-21.31147540983606</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L284" t="n">
         <v>503.6</v>
@@ -15559,7 +15581,7 @@
         <v>1400</v>
       </c>
       <c r="K285" t="n">
-        <v>-14.28571428571428</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L285" t="n">
         <v>502.9</v>
@@ -15610,7 +15632,7 @@
         <v>1402</v>
       </c>
       <c r="K286" t="n">
-        <v>-24.59016393442623</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L286" t="n">
         <v>502.6</v>
@@ -15661,7 +15683,7 @@
         <v>1410</v>
       </c>
       <c r="K287" t="n">
-        <v>-48.38709677419355</v>
+        <v>-25</v>
       </c>
       <c r="L287" t="n">
         <v>502.1</v>
@@ -15712,7 +15734,7 @@
         <v>1410</v>
       </c>
       <c r="K288" t="n">
-        <v>-47.54098360655738</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L288" t="n">
         <v>501.5</v>
@@ -15763,7 +15785,7 @@
         <v>1412</v>
       </c>
       <c r="K289" t="n">
-        <v>-45.76271186440678</v>
+        <v>-40</v>
       </c>
       <c r="L289" t="n">
         <v>500.4</v>
@@ -15814,7 +15836,7 @@
         <v>1414</v>
       </c>
       <c r="K290" t="n">
-        <v>-36.84210526315789</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L290" t="n">
         <v>499.8</v>
@@ -15865,7 +15887,7 @@
         <v>1418</v>
       </c>
       <c r="K291" t="n">
-        <v>-40</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L291" t="n">
         <v>498.5</v>
@@ -15916,7 +15938,7 @@
         <v>1424</v>
       </c>
       <c r="K292" t="n">
-        <v>-20</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L292" t="n">
         <v>497.8</v>
@@ -15967,7 +15989,7 @@
         <v>1432</v>
       </c>
       <c r="K293" t="n">
-        <v>-26.15384615384616</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L293" t="n">
         <v>496.5</v>
@@ -16018,7 +16040,7 @@
         <v>1436</v>
       </c>
       <c r="K294" t="n">
-        <v>-26.15384615384616</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L294" t="n">
         <v>495.6</v>
@@ -16069,7 +16091,7 @@
         <v>1442</v>
       </c>
       <c r="K295" t="n">
-        <v>-18.84057971014493</v>
+        <v>-10</v>
       </c>
       <c r="L295" t="n">
         <v>495</v>
@@ -16120,7 +16142,7 @@
         <v>1444</v>
       </c>
       <c r="K296" t="n">
-        <v>-7.692307692307693</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L296" t="n">
         <v>494.8</v>
@@ -16171,7 +16193,7 @@
         <v>1450</v>
       </c>
       <c r="K297" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>494.8</v>
@@ -16222,7 +16244,7 @@
         <v>1454</v>
       </c>
       <c r="K298" t="n">
-        <v>-2.941176470588235</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L298" t="n">
         <v>495.2</v>
@@ -16273,7 +16295,7 @@
         <v>1458</v>
       </c>
       <c r="K299" t="n">
-        <v>-1.449275362318841</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L299" t="n">
         <v>496.2</v>
@@ -16324,7 +16346,7 @@
         <v>1470</v>
       </c>
       <c r="K300" t="n">
-        <v>17.94871794871795</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L300" t="n">
         <v>498.2</v>
@@ -16375,7 +16397,7 @@
         <v>1473</v>
       </c>
       <c r="K301" t="n">
-        <v>17.94871794871795</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L301" t="n">
         <v>500.9</v>
@@ -16426,7 +16448,7 @@
         <v>1479</v>
       </c>
       <c r="K302" t="n">
-        <v>9.523809523809524</v>
+        <v>48.93617021276596</v>
       </c>
       <c r="L302" t="n">
         <v>502.4</v>
@@ -16477,7 +16499,7 @@
         <v>1483</v>
       </c>
       <c r="K303" t="n">
-        <v>6.976744186046512</v>
+        <v>31.91489361702128</v>
       </c>
       <c r="L303" t="n">
         <v>504.3</v>
@@ -16528,7 +16550,7 @@
         <v>1485</v>
       </c>
       <c r="K304" t="n">
-        <v>9.090909090909092</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L304" t="n">
         <v>506</v>
@@ -16579,7 +16601,7 @@
         <v>1488</v>
       </c>
       <c r="K305" t="n">
-        <v>2.272727272727273</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L305" t="n">
         <v>506.8</v>
@@ -16630,7 +16652,7 @@
         <v>1488</v>
       </c>
       <c r="K306" t="n">
-        <v>4.651162790697675</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L306" t="n">
         <v>507.4</v>
@@ -16681,7 +16703,7 @@
         <v>1491</v>
       </c>
       <c r="K307" t="n">
-        <v>18.51851851851852</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L307" t="n">
         <v>508.9</v>
@@ -16732,7 +16754,7 @@
         <v>1491</v>
       </c>
       <c r="K308" t="n">
-        <v>18.51851851851852</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L308" t="n">
         <v>510</v>
@@ -16783,7 +16805,7 @@
         <v>1495</v>
       </c>
       <c r="K309" t="n">
-        <v>15.66265060240964</v>
+        <v>-36</v>
       </c>
       <c r="L309" t="n">
         <v>510.3</v>
@@ -16834,7 +16856,7 @@
         <v>1495</v>
       </c>
       <c r="K310" t="n">
-        <v>13.58024691358025</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L310" t="n">
         <v>509.4</v>
@@ -16885,7 +16907,7 @@
         <v>1502</v>
       </c>
       <c r="K311" t="n">
-        <v>26.19047619047619</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L311" t="n">
         <v>508.9</v>
@@ -16936,7 +16958,7 @@
         <v>1509</v>
       </c>
       <c r="K312" t="n">
-        <v>10.58823529411765</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L312" t="n">
         <v>508.3</v>
@@ -16987,7 +17009,7 @@
         <v>1514</v>
       </c>
       <c r="K313" t="n">
-        <v>26.82926829268293</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L313" t="n">
         <v>508.6</v>
@@ -17038,7 +17060,7 @@
         <v>1515</v>
       </c>
       <c r="K314" t="n">
-        <v>21.51898734177215</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L314" t="n">
         <v>508.6</v>
@@ -17089,7 +17111,7 @@
         <v>1520</v>
       </c>
       <c r="K315" t="n">
-        <v>20.51282051282051</v>
+        <v>25</v>
       </c>
       <c r="L315" t="n">
         <v>509.4</v>
@@ -17140,7 +17162,7 @@
         <v>1524</v>
       </c>
       <c r="K316" t="n">
-        <v>22.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L316" t="n">
         <v>510.6</v>
@@ -17191,7 +17213,7 @@
         <v>1524</v>
       </c>
       <c r="K317" t="n">
-        <v>32.43243243243244</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L317" t="n">
         <v>511.5</v>
@@ -17242,7 +17264,7 @@
         <v>1537</v>
       </c>
       <c r="K318" t="n">
-        <v>8.433734939759036</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>511.1</v>
@@ -17293,7 +17315,7 @@
         <v>1539</v>
       </c>
       <c r="K319" t="n">
-        <v>6.172839506172839</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L319" t="n">
         <v>511.3</v>
@@ -17344,7 +17366,7 @@
         <v>1541</v>
       </c>
       <c r="K320" t="n">
-        <v>-7.042253521126761</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L320" t="n">
         <v>511.7</v>
@@ -17395,7 +17417,7 @@
         <v>1546</v>
       </c>
       <c r="K321" t="n">
-        <v>-4.10958904109589</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L321" t="n">
         <v>511.9</v>
@@ -17446,7 +17468,7 @@
         <v>1549</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L322" t="n">
         <v>512.5</v>
@@ -17497,7 +17519,7 @@
         <v>1564</v>
       </c>
       <c r="K323" t="n">
-        <v>23.45679012345679</v>
+        <v>34.69387755102041</v>
       </c>
       <c r="L323" t="n">
         <v>514.1</v>
@@ -17548,7 +17570,7 @@
         <v>1578</v>
       </c>
       <c r="K324" t="n">
-        <v>3.225806451612903</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L324" t="n">
         <v>514.4</v>
@@ -17599,7 +17621,7 @@
         <v>1580</v>
       </c>
       <c r="K325" t="n">
-        <v>8.695652173913043</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L325" t="n">
         <v>514.4</v>
@@ -17650,7 +17672,7 @@
         <v>1582</v>
       </c>
       <c r="K326" t="n">
-        <v>10.63829787234043</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L326" t="n">
         <v>514.2</v>
@@ -17701,7 +17723,7 @@
         <v>1595</v>
       </c>
       <c r="K327" t="n">
-        <v>19.23076923076923</v>
+        <v>41.37931034482759</v>
       </c>
       <c r="L327" t="n">
         <v>515.3</v>
@@ -17752,7 +17774,7 @@
         <v>1597</v>
       </c>
       <c r="K328" t="n">
-        <v>16.9811320754717</v>
+        <v>34.48275862068966</v>
       </c>
       <c r="L328" t="n">
         <v>517.5</v>
@@ -17803,7 +17825,7 @@
         <v>1601</v>
       </c>
       <c r="K329" t="n">
-        <v>16.9811320754717</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="L329" t="n">
         <v>519.1</v>
@@ -17854,7 +17876,7 @@
         <v>1604</v>
       </c>
       <c r="K330" t="n">
-        <v>13.76146788990826</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L330" t="n">
         <v>520.2</v>
@@ -17905,7 +17927,7 @@
         <v>1607</v>
       </c>
       <c r="K331" t="n">
-        <v>10.47619047619048</v>
+        <v>20.68965517241379</v>
       </c>
       <c r="L331" t="n">
         <v>521.1</v>
@@ -17956,7 +17978,7 @@
         <v>1610</v>
       </c>
       <c r="K332" t="n">
-        <v>14.85148514851485</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L332" t="n">
         <v>522</v>
@@ -18007,7 +18029,7 @@
         <v>1613</v>
       </c>
       <c r="K333" t="n">
-        <v>7.07070707070707</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L333" t="n">
         <v>521.1</v>
@@ -18058,7 +18080,7 @@
         <v>1613</v>
       </c>
       <c r="K334" t="n">
-        <v>8.163265306122449</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L334" t="n">
         <v>521.6</v>
@@ -18109,7 +18131,7 @@
         <v>1615</v>
       </c>
       <c r="K335" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L335" t="n">
         <v>522.1</v>
@@ -18160,7 +18182,7 @@
         <v>1625</v>
       </c>
       <c r="K336" t="n">
-        <v>-8.91089108910891</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L336" t="n">
         <v>521.4</v>
@@ -18211,7 +18233,7 @@
         <v>1629</v>
       </c>
       <c r="K337" t="n">
-        <v>-12.38095238095238</v>
+        <v>-68.75</v>
       </c>
       <c r="L337" t="n">
         <v>519</v>
@@ -18262,7 +18284,7 @@
         <v>1653</v>
       </c>
       <c r="K338" t="n">
-        <v>20.68965517241379</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="L338" t="n">
         <v>519.2</v>
@@ -18313,7 +18335,7 @@
         <v>1663</v>
       </c>
       <c r="K339" t="n">
-        <v>9.67741935483871</v>
+        <v>-1.694915254237288</v>
       </c>
       <c r="L339" t="n">
         <v>518.8</v>
@@ -18364,7 +18386,7 @@
         <v>1665</v>
       </c>
       <c r="K340" t="n">
-        <v>9.67741935483871</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L340" t="n">
         <v>518.9</v>
@@ -18415,7 +18437,7 @@
         <v>1665</v>
       </c>
       <c r="K341" t="n">
-        <v>5.88235294117647</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L341" t="n">
         <v>518.7</v>
@@ -18466,7 +18488,7 @@
         <v>1667</v>
       </c>
       <c r="K342" t="n">
-        <v>6.779661016949152</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L342" t="n">
         <v>518.6</v>
@@ -18517,7 +18539,7 @@
         <v>1673</v>
       </c>
       <c r="K343" t="n">
-        <v>-11.92660550458716</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L343" t="n">
         <v>518.2</v>
@@ -18568,7 +18590,7 @@
         <v>1677</v>
       </c>
       <c r="K344" t="n">
-        <v>5.05050505050505</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L344" t="n">
         <v>518.2</v>
@@ -18619,7 +18641,7 @@
         <v>1678</v>
       </c>
       <c r="K345" t="n">
-        <v>4.081632653061225</v>
+        <v>16.9811320754717</v>
       </c>
       <c r="L345" t="n">
         <v>518.1</v>
@@ -18670,7 +18692,7 @@
         <v>1679</v>
       </c>
       <c r="K346" t="n">
-        <v>1.030927835051546</v>
+        <v>24</v>
       </c>
       <c r="L346" t="n">
         <v>518.9</v>
@@ -18721,7 +18743,7 @@
         <v>1679</v>
       </c>
       <c r="K347" t="n">
-        <v>-14.28571428571428</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L347" t="n">
         <v>520.1</v>
@@ -18772,7 +18794,7 @@
         <v>1681</v>
       </c>
       <c r="K348" t="n">
-        <v>-9.523809523809524</v>
+        <v>0</v>
       </c>
       <c r="L348" t="n">
         <v>519.1</v>
@@ -18823,7 +18845,7 @@
         <v>1681</v>
       </c>
       <c r="K349" t="n">
-        <v>-5</v>
+        <v>-12.5</v>
       </c>
       <c r="L349" t="n">
         <v>519.1</v>
@@ -18874,7 +18896,7 @@
         <v>1685</v>
       </c>
       <c r="K350" t="n">
-        <v>-6.172839506172839</v>
+        <v>-30</v>
       </c>
       <c r="L350" t="n">
         <v>518.5</v>
@@ -18925,7 +18947,7 @@
         <v>1688</v>
       </c>
       <c r="K351" t="n">
-        <v>-6.172839506172839</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L351" t="n">
         <v>518.2</v>
@@ -18976,7 +18998,7 @@
         <v>1694</v>
       </c>
       <c r="K352" t="n">
-        <v>-9.523809523809524</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L352" t="n">
         <v>517.5</v>
@@ -19027,7 +19049,7 @@
         <v>1694</v>
       </c>
       <c r="K353" t="n">
-        <v>-6.172839506172839</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L353" t="n">
         <v>517.4</v>
@@ -19078,7 +19100,7 @@
         <v>1695</v>
       </c>
       <c r="K354" t="n">
-        <v>-7.317073170731707</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L354" t="n">
         <v>516.8</v>
@@ -19129,7 +19151,7 @@
         <v>1701</v>
       </c>
       <c r="K355" t="n">
-        <v>-2.325581395348837</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>516.7</v>
@@ -19180,7 +19202,7 @@
         <v>1706</v>
       </c>
       <c r="K356" t="n">
-        <v>3.703703703703703</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L356" t="n">
         <v>516.2</v>
@@ -19231,7 +19253,7 @@
         <v>1712</v>
       </c>
       <c r="K357" t="n">
-        <v>1.204819277108434</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L357" t="n">
         <v>515.1</v>
@@ -19282,7 +19304,7 @@
         <v>1712</v>
       </c>
       <c r="K358" t="n">
-        <v>-38.98305084745763</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L358" t="n">
         <v>513.8</v>
@@ -19333,7 +19355,7 @@
         <v>1712</v>
       </c>
       <c r="K359" t="n">
-        <v>-26.53061224489796</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>512.5</v>
@@ -19384,7 +19406,7 @@
         <v>1713</v>
       </c>
       <c r="K360" t="n">
-        <v>-29.16666666666667</v>
+        <v>-44</v>
       </c>
       <c r="L360" t="n">
         <v>511.7</v>
@@ -19435,7 +19457,7 @@
         <v>1714</v>
       </c>
       <c r="K361" t="n">
-        <v>-30.61224489795918</v>
+        <v>-30</v>
       </c>
       <c r="L361" t="n">
         <v>510.5</v>
@@ -19486,7 +19508,7 @@
         <v>1722</v>
       </c>
       <c r="K362" t="n">
-        <v>-38.18181818181819</v>
+        <v>-50</v>
       </c>
       <c r="L362" t="n">
         <v>509.1</v>
@@ -19537,7 +19559,7 @@
         <v>1723</v>
       </c>
       <c r="K363" t="n">
-        <v>-28</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L363" t="n">
         <v>507.8</v>
@@ -19588,7 +19610,7 @@
         <v>1725</v>
       </c>
       <c r="K364" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L364" t="n">
         <v>506.8</v>
@@ -19639,7 +19661,7 @@
         <v>1727</v>
       </c>
       <c r="K365" t="n">
-        <v>-30.61224489795918</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L365" t="n">
         <v>505.4</v>
@@ -19690,7 +19712,7 @@
         <v>1729</v>
       </c>
       <c r="K366" t="n">
-        <v>-24</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L366" t="n">
         <v>504.7</v>
@@ -19741,7 +19763,7 @@
         <v>1732</v>
       </c>
       <c r="K367" t="n">
-        <v>-16.9811320754717</v>
+        <v>10</v>
       </c>
       <c r="L367" t="n">
         <v>504.9</v>
@@ -19792,7 +19814,7 @@
         <v>1739</v>
       </c>
       <c r="K368" t="n">
-        <v>-31.03448275862069</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L368" t="n">
         <v>504.4</v>
@@ -19843,7 +19865,7 @@
         <v>1749</v>
       </c>
       <c r="K369" t="n">
-        <v>-41.17647058823529</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L369" t="n">
         <v>502.9</v>
@@ -19894,7 +19916,7 @@
         <v>1750</v>
       </c>
       <c r="K370" t="n">
-        <v>-35.38461538461539</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L370" t="n">
         <v>501.4</v>
@@ -19945,7 +19967,7 @@
         <v>1754</v>
       </c>
       <c r="K371" t="n">
-        <v>-33.33333333333333</v>
+        <v>-6.25</v>
       </c>
       <c r="L371" t="n">
         <v>500.4</v>
@@ -19996,7 +20018,7 @@
         <v>1754</v>
       </c>
       <c r="K372" t="n">
-        <v>-26.66666666666667</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L372" t="n">
         <v>500.2</v>
@@ -20047,7 +20069,7 @@
         <v>1754</v>
       </c>
       <c r="K373" t="n">
-        <v>-26.66666666666667</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L373" t="n">
         <v>499.9</v>
@@ -20098,7 +20120,7 @@
         <v>1756</v>
       </c>
       <c r="K374" t="n">
-        <v>-21.31147540983606</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L374" t="n">
         <v>499.6</v>
@@ -20149,7 +20171,7 @@
         <v>1756</v>
       </c>
       <c r="K375" t="n">
-        <v>-34.54545454545455</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L375" t="n">
         <v>499.1</v>
@@ -20200,7 +20222,7 @@
         <v>1756</v>
       </c>
       <c r="K376" t="n">
-        <v>-28</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L376" t="n">
         <v>498.4</v>
@@ -20251,7 +20273,7 @@
         <v>1759</v>
       </c>
       <c r="K377" t="n">
-        <v>-10.63829787234043</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>497.7</v>
@@ -20302,7 +20324,7 @@
         <v>1766</v>
       </c>
       <c r="K378" t="n">
-        <v>3.703703703703703</v>
+        <v>100</v>
       </c>
       <c r="L378" t="n">
         <v>498.4</v>
@@ -20353,7 +20375,7 @@
         <v>1768</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L379" t="n">
         <v>499.9</v>
@@ -20404,7 +20426,7 @@
         <v>1769</v>
       </c>
       <c r="K380" t="n">
-        <v>-3.571428571428571</v>
+        <v>60</v>
       </c>
       <c r="L380" t="n">
         <v>501.2</v>
@@ -20455,7 +20477,7 @@
         <v>1770</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="L381" t="n">
         <v>502.2</v>
@@ -20506,7 +20528,7 @@
         <v>1774</v>
       </c>
       <c r="K382" t="n">
-        <v>7.692307692307693</v>
+        <v>30</v>
       </c>
       <c r="L382" t="n">
         <v>502.8</v>
@@ -20557,7 +20579,7 @@
         <v>1775</v>
       </c>
       <c r="K383" t="n">
-        <v>7.692307692307693</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L383" t="n">
         <v>503.5</v>
@@ -20608,7 +20630,7 @@
         <v>1775</v>
       </c>
       <c r="K384" t="n">
-        <v>4</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L384" t="n">
         <v>504</v>
@@ -20659,7 +20681,7 @@
         <v>1777</v>
       </c>
       <c r="K385" t="n">
-        <v>4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L385" t="n">
         <v>504.7</v>
@@ -20710,7 +20732,7 @@
         <v>1777</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L386" t="n">
         <v>505.4</v>
@@ -20761,7 +20783,7 @@
         <v>1778</v>
       </c>
       <c r="K387" t="n">
-        <v>-8.695652173913043</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L387" t="n">
         <v>505.7</v>
@@ -20812,7 +20834,7 @@
         <v>1780</v>
       </c>
       <c r="K388" t="n">
-        <v>2.439024390243902</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>505.1</v>
@@ -20863,7 +20885,7 @@
         <v>1782</v>
       </c>
       <c r="K389" t="n">
-        <v>27.27272727272727</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L389" t="n">
         <v>504.5</v>
@@ -20914,7 +20936,7 @@
         <v>1785</v>
       </c>
       <c r="K390" t="n">
-        <v>14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L390" t="n">
         <v>503.7</v>
@@ -20965,7 +20987,7 @@
         <v>1788</v>
       </c>
       <c r="K391" t="n">
-        <v>-5.88235294117647</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L391" t="n">
         <v>502.5</v>
@@ -21016,7 +21038,7 @@
         <v>1795</v>
       </c>
       <c r="K392" t="n">
-        <v>-21.95121951219512</v>
+        <v>-80</v>
       </c>
       <c r="L392" t="n">
         <v>501</v>
@@ -21067,7 +21089,7 @@
         <v>1795</v>
       </c>
       <c r="K393" t="n">
-        <v>-21.95121951219512</v>
+        <v>-80</v>
       </c>
       <c r="L393" t="n">
         <v>499.4</v>
@@ -21118,7 +21140,7 @@
         <v>1802</v>
       </c>
       <c r="K394" t="n">
-        <v>-8.695652173913043</v>
+        <v>-44</v>
       </c>
       <c r="L394" t="n">
         <v>498.5</v>
@@ -21169,7 +21191,7 @@
         <v>1802</v>
       </c>
       <c r="K395" t="n">
-        <v>-8.695652173913043</v>
+        <v>-44</v>
       </c>
       <c r="L395" t="n">
         <v>497.4</v>
@@ -21220,7 +21242,7 @@
         <v>1803</v>
       </c>
       <c r="K396" t="n">
-        <v>-6.382978723404255</v>
+        <v>-36</v>
       </c>
       <c r="L396" t="n">
         <v>496.4</v>
@@ -21271,7 +21293,7 @@
         <v>1804</v>
       </c>
       <c r="K397" t="n">
-        <v>-15.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>495.4</v>
@@ -21373,7 +21395,7 @@
         <v>1817</v>
       </c>
       <c r="K399" t="n">
-        <v>-51.02040816326531</v>
+        <v>-50</v>
       </c>
       <c r="L399" t="n">
         <v>491.7</v>
@@ -21424,7 +21446,7 @@
         <v>1822</v>
       </c>
       <c r="K400" t="n">
-        <v>-35.84905660377358</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L400" t="n">
         <v>490.6</v>
@@ -21475,7 +21497,7 @@
         <v>1823</v>
       </c>
       <c r="K401" t="n">
-        <v>-35.84905660377358</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>489.9</v>
@@ -21526,7 +21548,7 @@
         <v>1824</v>
       </c>
       <c r="K402" t="n">
-        <v>-28</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L402" t="n">
         <v>490</v>
@@ -21577,7 +21599,7 @@
         <v>1830</v>
       </c>
       <c r="K403" t="n">
-        <v>-38.18181818181819</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L403" t="n">
         <v>489.5</v>
@@ -21628,7 +21650,7 @@
         <v>1830</v>
       </c>
       <c r="K404" t="n">
-        <v>-38.18181818181819</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L404" t="n">
         <v>488.3</v>
@@ -21679,7 +21701,7 @@
         <v>1834</v>
       </c>
       <c r="K405" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L405" t="n">
         <v>487.5</v>
@@ -21730,7 +21752,7 @@
         <v>1835</v>
       </c>
       <c r="K406" t="n">
-        <v>-34.48275862068966</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L406" t="n">
         <v>486.5</v>
@@ -21781,7 +21803,7 @@
         <v>1836</v>
       </c>
       <c r="K407" t="n">
-        <v>-34.48275862068966</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>485.5</v>
@@ -21832,7 +21854,7 @@
         <v>1841</v>
       </c>
       <c r="K408" t="n">
-        <v>-37.70491803278689</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L408" t="n">
         <v>485</v>
@@ -21883,7 +21905,7 @@
         <v>1847</v>
       </c>
       <c r="K409" t="n">
-        <v>-23.07692307692308</v>
+        <v>-4</v>
       </c>
       <c r="L409" t="n">
         <v>485.4</v>
@@ -21934,7 +21956,7 @@
         <v>1850</v>
       </c>
       <c r="K410" t="n">
-        <v>-23.07692307692308</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L410" t="n">
         <v>485</v>
@@ -21985,7 +22007,7 @@
         <v>1852</v>
       </c>
       <c r="K411" t="n">
-        <v>-21.875</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L411" t="n">
         <v>484.3</v>
@@ -22036,7 +22058,7 @@
         <v>1854</v>
       </c>
       <c r="K412" t="n">
-        <v>-8.474576271186439</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>483.7</v>
@@ -22087,7 +22109,7 @@
         <v>1856</v>
       </c>
       <c r="K413" t="n">
-        <v>-4.918032786885246</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L413" t="n">
         <v>483.9</v>
@@ -22138,7 +22160,7 @@
         <v>1856</v>
       </c>
       <c r="K414" t="n">
-        <v>-18.51851851851852</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L414" t="n">
         <v>484.1</v>
@@ -22189,7 +22211,7 @@
         <v>1859</v>
       </c>
       <c r="K415" t="n">
-        <v>-12.28070175438596</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L415" t="n">
         <v>484.2</v>
@@ -22240,7 +22262,7 @@
         <v>1861</v>
       </c>
       <c r="K416" t="n">
-        <v>-17.24137931034483</v>
+        <v>4</v>
       </c>
       <c r="L416" t="n">
         <v>484.2</v>
@@ -22291,7 +22313,7 @@
         <v>1865</v>
       </c>
       <c r="K417" t="n">
-        <v>-21.31147540983606</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L417" t="n">
         <v>483.9</v>
@@ -22342,7 +22364,7 @@
         <v>1866</v>
       </c>
       <c r="K418" t="n">
-        <v>-3.846153846153846</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L418" t="n">
         <v>484.2</v>
@@ -22393,7 +22415,7 @@
         <v>1874</v>
       </c>
       <c r="K419" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L419" t="n">
         <v>484.7</v>
@@ -22444,7 +22466,7 @@
         <v>1880</v>
       </c>
       <c r="K420" t="n">
-        <v>-3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L420" t="n">
         <v>484.9</v>
@@ -22495,7 +22517,7 @@
         <v>1881</v>
       </c>
       <c r="K421" t="n">
-        <v>-6.896551724137931</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L421" t="n">
         <v>485.2</v>
@@ -22546,7 +22568,7 @@
         <v>1890</v>
       </c>
       <c r="K422" t="n">
-        <v>-21.21212121212121</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L422" t="n">
         <v>484.4</v>
@@ -22597,7 +22619,7 @@
         <v>1896</v>
       </c>
       <c r="K423" t="n">
-        <v>-3.03030303030303</v>
+        <v>-10</v>
       </c>
       <c r="L423" t="n">
         <v>484</v>
@@ -22648,7 +22670,7 @@
         <v>1898</v>
       </c>
       <c r="K424" t="n">
-        <v>-5.88235294117647</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L424" t="n">
         <v>483.4</v>
@@ -22699,7 +22721,7 @@
         <v>1899</v>
       </c>
       <c r="K425" t="n">
-        <v>-10.76923076923077</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L425" t="n">
         <v>482.6</v>
@@ -22750,7 +22772,7 @@
         <v>1901</v>
       </c>
       <c r="K426" t="n">
-        <v>-12.12121212121212</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L426" t="n">
         <v>481.8</v>
@@ -22801,7 +22823,7 @@
         <v>1902</v>
       </c>
       <c r="K427" t="n">
-        <v>-9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L427" t="n">
         <v>481.5</v>
@@ -22852,7 +22874,7 @@
         <v>1906</v>
       </c>
       <c r="K428" t="n">
-        <v>4.615384615384616</v>
+        <v>-25</v>
       </c>
       <c r="L428" t="n">
         <v>481.5</v>
@@ -22903,7 +22925,7 @@
         <v>1910</v>
       </c>
       <c r="K429" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L429" t="n">
         <v>480.3</v>
@@ -22954,7 +22976,7 @@
         <v>1912</v>
       </c>
       <c r="K430" t="n">
-        <v>-9.67741935483871</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L430" t="n">
         <v>479.5</v>
@@ -23005,7 +23027,7 @@
         <v>1918</v>
       </c>
       <c r="K431" t="n">
-        <v>3.03030303030303</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L431" t="n">
         <v>479.4</v>
@@ -23056,7 +23078,7 @@
         <v>1925</v>
       </c>
       <c r="K432" t="n">
-        <v>-9.859154929577464</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L432" t="n">
         <v>479.5</v>
@@ -23107,7 +23129,7 @@
         <v>1932</v>
       </c>
       <c r="K433" t="n">
-        <v>-2.631578947368421</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L433" t="n">
         <v>479.7</v>
@@ -23158,7 +23180,7 @@
         <v>1938</v>
       </c>
       <c r="K434" t="n">
-        <v>4.878048780487805</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L434" t="n">
         <v>480.7</v>
@@ -23209,7 +23231,7 @@
         <v>1956</v>
       </c>
       <c r="K435" t="n">
-        <v>-17.52577319587629</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L435" t="n">
         <v>479.8</v>
@@ -23260,7 +23282,7 @@
         <v>1963</v>
       </c>
       <c r="K436" t="n">
-        <v>-7.84313725490196</v>
+        <v>-1.639344262295082</v>
       </c>
       <c r="L436" t="n">
         <v>479.8</v>
@@ -23311,7 +23333,7 @@
         <v>1969</v>
       </c>
       <c r="K437" t="n">
-        <v>1.923076923076923</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="L437" t="n">
         <v>480.3</v>
@@ -23362,7 +23384,7 @@
         <v>1970</v>
       </c>
       <c r="K438" t="n">
-        <v>1.923076923076923</v>
+        <v>10</v>
       </c>
       <c r="L438" t="n">
         <v>480.5</v>
@@ -23413,7 +23435,7 @@
         <v>1976</v>
       </c>
       <c r="K439" t="n">
-        <v>-11.76470588235294</v>
+        <v>3.125</v>
       </c>
       <c r="L439" t="n">
         <v>480.5</v>
@@ -23464,7 +23486,7 @@
         <v>1977</v>
       </c>
       <c r="K440" t="n">
-        <v>-7.216494845360824</v>
+        <v>-8.474576271186439</v>
       </c>
       <c r="L440" t="n">
         <v>480.6</v>
@@ -23515,7 +23537,7 @@
         <v>1978</v>
       </c>
       <c r="K441" t="n">
-        <v>-7.216494845360824</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L441" t="n">
         <v>480</v>
@@ -23566,7 +23588,7 @@
         <v>1982</v>
       </c>
       <c r="K442" t="n">
-        <v>-2.173913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L442" t="n">
         <v>479.7</v>
@@ -23617,7 +23639,7 @@
         <v>1985</v>
       </c>
       <c r="K443" t="n">
-        <v>-5.617977528089887</v>
+        <v>-27.65957446808511</v>
       </c>
       <c r="L443" t="n">
         <v>479</v>
@@ -23668,7 +23690,7 @@
         <v>1986</v>
       </c>
       <c r="K444" t="n">
-        <v>-4.545454545454546</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L444" t="n">
         <v>477.6</v>
@@ -23719,7 +23741,7 @@
         <v>1987</v>
       </c>
       <c r="K445" t="n">
-        <v>-4.545454545454546</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L445" t="n">
         <v>478.1</v>
@@ -23770,7 +23792,7 @@
         <v>1988</v>
       </c>
       <c r="K446" t="n">
-        <v>-1.149425287356322</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L446" t="n">
         <v>478</v>
@@ -23821,7 +23843,7 @@
         <v>1995</v>
       </c>
       <c r="K447" t="n">
-        <v>5.376344086021505</v>
+        <v>-4</v>
       </c>
       <c r="L447" t="n">
         <v>478</v>
@@ -23872,7 +23894,7 @@
         <v>2000</v>
       </c>
       <c r="K448" t="n">
-        <v>6.382978723404255</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L448" t="n">
         <v>478.4</v>
@@ -23923,7 +23945,7 @@
         <v>2006</v>
       </c>
       <c r="K449" t="n">
-        <v>4.166666666666666</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L449" t="n">
         <v>478.8</v>
@@ -23974,7 +23996,7 @@
         <v>2012</v>
       </c>
       <c r="K450" t="n">
-        <v>12</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L450" t="n">
         <v>479.9</v>
@@ -24025,7 +24047,7 @@
         <v>2017</v>
       </c>
       <c r="K451" t="n">
-        <v>1.01010101010101</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L451" t="n">
         <v>480.6</v>
@@ -24076,7 +24098,7 @@
         <v>2017</v>
       </c>
       <c r="K452" t="n">
-        <v>8.695652173913043</v>
+        <v>25</v>
       </c>
       <c r="L452" t="n">
         <v>481.7</v>
@@ -24127,7 +24149,7 @@
         <v>2025</v>
       </c>
       <c r="K453" t="n">
-        <v>9.67741935483871</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L453" t="n">
         <v>483.3</v>
@@ -24178,7 +24200,7 @@
         <v>2027</v>
       </c>
       <c r="K454" t="n">
-        <v>1.123595505617978</v>
+        <v>35</v>
       </c>
       <c r="L454" t="n">
         <v>484.8</v>
@@ -24229,7 +24251,7 @@
         <v>2027</v>
       </c>
       <c r="K455" t="n">
-        <v>26.76056338028169</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L455" t="n">
         <v>486.2</v>
@@ -24280,7 +24302,7 @@
         <v>2031</v>
       </c>
       <c r="K456" t="n">
-        <v>11.76470588235294</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L456" t="n">
         <v>487.1</v>
@@ -24331,7 +24353,7 @@
         <v>2037</v>
       </c>
       <c r="K457" t="n">
-        <v>11.76470588235294</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L457" t="n">
         <v>487.9</v>
@@ -24382,7 +24404,7 @@
         <v>2038</v>
       </c>
       <c r="K458" t="n">
-        <v>8.823529411764707</v>
+        <v>25</v>
       </c>
       <c r="L458" t="n">
         <v>488.1</v>
@@ -24433,7 +24455,7 @@
         <v>2040</v>
       </c>
       <c r="K459" t="n">
-        <v>21.875</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L459" t="n">
         <v>489.1</v>
@@ -24484,7 +24506,7 @@
         <v>2043</v>
       </c>
       <c r="K460" t="n">
-        <v>18.18181818181818</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L460" t="n">
         <v>489.2</v>
@@ -24535,7 +24557,7 @@
         <v>2043</v>
       </c>
       <c r="K461" t="n">
-        <v>20</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L461" t="n">
         <v>489.8</v>
@@ -24586,7 +24608,7 @@
         <v>2048</v>
       </c>
       <c r="K462" t="n">
-        <v>33.33333333333333</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L462" t="n">
         <v>490.9</v>
@@ -24637,7 +24659,7 @@
         <v>2051</v>
       </c>
       <c r="K463" t="n">
-        <v>24.24242424242424</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L463" t="n">
         <v>490.9</v>
@@ -24688,7 +24710,7 @@
         <v>2053</v>
       </c>
       <c r="K464" t="n">
-        <v>28.35820895522388</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L464" t="n">
         <v>491.3</v>
@@ -24739,7 +24761,7 @@
         <v>2053</v>
       </c>
       <c r="K465" t="n">
-        <v>27.27272727272727</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L465" t="n">
         <v>491.7</v>
@@ -24790,7 +24812,7 @@
         <v>2057</v>
       </c>
       <c r="K466" t="n">
-        <v>18.84057971014493</v>
+        <v>-10</v>
       </c>
       <c r="L466" t="n">
         <v>492.1</v>
@@ -24841,7 +24863,7 @@
         <v>2061</v>
       </c>
       <c r="K467" t="n">
-        <v>15.15151515151515</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L467" t="n">
         <v>492.3</v>
@@ -24892,7 +24914,7 @@
         <v>2062</v>
       </c>
       <c r="K468" t="n">
-        <v>9.67741935483871</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L468" t="n">
         <v>492.7</v>
@@ -24943,7 +24965,7 @@
         <v>2065</v>
       </c>
       <c r="K469" t="n">
-        <v>25.42372881355932</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L469" t="n">
         <v>493.2</v>
@@ -24994,7 +25016,7 @@
         <v>2067</v>
       </c>
       <c r="K470" t="n">
-        <v>20</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L470" t="n">
         <v>494.2</v>
@@ -25045,7 +25067,7 @@
         <v>2077</v>
       </c>
       <c r="K471" t="n">
-        <v>43.33333333333334</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L471" t="n">
         <v>496.2</v>
@@ -25096,7 +25118,7 @@
         <v>2081</v>
       </c>
       <c r="K472" t="n">
-        <v>34.375</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L472" t="n">
         <v>497.3</v>
@@ -25147,7 +25169,7 @@
         <v>2086</v>
       </c>
       <c r="K473" t="n">
-        <v>14.75409836065574</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L473" t="n">
         <v>498.2</v>
@@ -25198,7 +25220,7 @@
         <v>2090</v>
       </c>
       <c r="K474" t="n">
-        <v>23.80952380952381</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L474" t="n">
         <v>499.3</v>
@@ -25249,7 +25271,7 @@
         <v>2091</v>
       </c>
       <c r="K475" t="n">
-        <v>25</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L475" t="n">
         <v>500.5</v>
@@ -25300,7 +25322,7 @@
         <v>2100</v>
       </c>
       <c r="K476" t="n">
-        <v>42.02898550724638</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L476" t="n">
         <v>503</v>
@@ -25351,7 +25373,7 @@
         <v>2110</v>
       </c>
       <c r="K477" t="n">
-        <v>45.20547945205479</v>
+        <v>62.5</v>
       </c>
       <c r="L477" t="n">
         <v>506.1</v>
@@ -25402,7 +25424,7 @@
         <v>2117</v>
       </c>
       <c r="K478" t="n">
-        <v>34.17721518987342</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L478" t="n">
         <v>508.4</v>
@@ -25453,7 +25475,7 @@
         <v>2124</v>
       </c>
       <c r="K479" t="n">
-        <v>38.09523809523809</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L479" t="n">
         <v>511.1</v>
@@ -25504,7 +25526,7 @@
         <v>2133</v>
       </c>
       <c r="K480" t="n">
-        <v>28.88888888888889</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="L480" t="n">
         <v>512.7</v>
@@ -25555,7 +25577,7 @@
         <v>2140</v>
       </c>
       <c r="K481" t="n">
-        <v>19.58762886597938</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L481" t="n">
         <v>512.6</v>
@@ -25606,7 +25628,7 @@
         <v>2149</v>
       </c>
       <c r="K482" t="n">
-        <v>4.95049504950495</v>
+        <v>-1.587301587301587</v>
       </c>
       <c r="L482" t="n">
         <v>512</v>
@@ -25657,7 +25679,7 @@
         <v>2156</v>
       </c>
       <c r="K483" t="n">
-        <v>14.28571428571428</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L483" t="n">
         <v>512.6</v>
@@ -25708,7 +25730,7 @@
         <v>2157</v>
       </c>
       <c r="K484" t="n">
-        <v>13.46153846153846</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L484" t="n">
         <v>512.9</v>
@@ -25759,7 +25781,7 @@
         <v>2162</v>
       </c>
       <c r="K485" t="n">
-        <v>8.256880733944955</v>
+        <v>-19.35483870967742</v>
       </c>
       <c r="L485" t="n">
         <v>512.6</v>
@@ -25810,7 +25832,7 @@
         <v>2162</v>
       </c>
       <c r="K486" t="n">
-        <v>12.38095238095238</v>
+        <v>-42.30769230769231</v>
       </c>
       <c r="L486" t="n">
         <v>511.4</v>
@@ -25861,7 +25883,7 @@
         <v>2168</v>
       </c>
       <c r="K487" t="n">
-        <v>2.803738317757009</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L487" t="n">
         <v>508.6</v>
@@ -25912,7 +25934,7 @@
         <v>2170</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L488" t="n">
         <v>506.3</v>
@@ -25963,7 +25985,7 @@
         <v>2176</v>
       </c>
       <c r="K489" t="n">
-        <v>2.702702702702703</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L489" t="n">
         <v>503.9</v>
@@ -26014,7 +26036,7 @@
         <v>2180</v>
       </c>
       <c r="K490" t="n">
-        <v>-2.654867256637168</v>
+        <v>-30</v>
       </c>
       <c r="L490" t="n">
         <v>502</v>
@@ -26065,7 +26087,7 @@
         <v>2182</v>
       </c>
       <c r="K491" t="n">
-        <v>-14.28571428571428</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L491" t="n">
         <v>500.6</v>
@@ -26116,7 +26138,7 @@
         <v>2190</v>
       </c>
       <c r="K492" t="n">
-        <v>-2.752293577981652</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L492" t="n">
         <v>500.9</v>
@@ -26167,7 +26189,7 @@
         <v>2197</v>
       </c>
       <c r="K493" t="n">
-        <v>-4.504504504504505</v>
+        <v>-30</v>
       </c>
       <c r="L493" t="n">
         <v>499.8</v>
@@ -26218,7 +26240,7 @@
         <v>2199</v>
       </c>
       <c r="K494" t="n">
-        <v>-10.09174311926606</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L494" t="n">
         <v>498.4</v>
@@ -26269,7 +26291,7 @@
         <v>2205</v>
       </c>
       <c r="K495" t="n">
-        <v>-5.263157894736842</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L495" t="n">
         <v>498.1</v>
@@ -26320,7 +26342,7 @@
         <v>2205</v>
       </c>
       <c r="K496" t="n">
-        <v>-14.28571428571428</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L496" t="n">
         <v>497.8</v>
@@ -26371,7 +26393,7 @@
         <v>2208</v>
       </c>
       <c r="K497" t="n">
-        <v>-28.57142857142857</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L497" t="n">
         <v>497.8</v>
@@ -26422,7 +26444,7 @@
         <v>2208</v>
       </c>
       <c r="K498" t="n">
-        <v>-23.07692307692308</v>
+        <v>-12.5</v>
       </c>
       <c r="L498" t="n">
         <v>498</v>
@@ -26473,7 +26495,7 @@
         <v>2209</v>
       </c>
       <c r="K499" t="n">
-        <v>-34.11764705882353</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L499" t="n">
         <v>497.5</v>
@@ -26524,7 +26546,7 @@
         <v>2210</v>
       </c>
       <c r="K500" t="n">
-        <v>-24.67532467532467</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L500" t="n">
         <v>497.5</v>
@@ -26575,7 +26597,7 @@
         <v>2214</v>
       </c>
       <c r="K501" t="n">
-        <v>-21.62162162162162</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L501" t="n">
         <v>497.3</v>
@@ -26626,7 +26648,7 @@
         <v>2218</v>
       </c>
       <c r="K502" t="n">
-        <v>-4.347826086956522</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L502" t="n">
         <v>496.7</v>
@@ -26677,7 +26699,7 @@
         <v>2223</v>
       </c>
       <c r="K503" t="n">
-        <v>-22.38805970149254</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L503" t="n">
         <v>496.3</v>
@@ -26728,7 +26750,7 @@
         <v>2225</v>
       </c>
       <c r="K504" t="n">
-        <v>-20.58823529411764</v>
+        <v>-30</v>
       </c>
       <c r="L504" t="n">
         <v>496.3</v>
@@ -26779,7 +26801,7 @@
         <v>2225</v>
       </c>
       <c r="K505" t="n">
-        <v>-14.28571428571428</v>
+        <v>-30</v>
       </c>
       <c r="L505" t="n">
         <v>495.7</v>
@@ -26830,7 +26852,7 @@
         <v>2229</v>
       </c>
       <c r="K506" t="n">
-        <v>-7.462686567164178</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L506" t="n">
         <v>495.5</v>
@@ -26881,7 +26903,7 @@
         <v>2235</v>
       </c>
       <c r="K507" t="n">
-        <v>10.44776119402985</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L507" t="n">
         <v>496.2</v>
@@ -26932,7 +26954,7 @@
         <v>2242</v>
       </c>
       <c r="K508" t="n">
-        <v>2.777777777777778</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L508" t="n">
         <v>496.2</v>
@@ -26983,7 +27005,7 @@
         <v>2250</v>
       </c>
       <c r="K509" t="n">
-        <v>5.405405405405405</v>
+        <v>20</v>
       </c>
       <c r="L509" t="n">
         <v>497.1</v>
@@ -27034,7 +27056,7 @@
         <v>2250</v>
       </c>
       <c r="K510" t="n">
-        <v>11.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L510" t="n">
         <v>497.9</v>
@@ -27085,7 +27107,7 @@
         <v>2251</v>
       </c>
       <c r="K511" t="n">
-        <v>13.04347826086956</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L511" t="n">
         <v>499</v>
@@ -27136,7 +27158,7 @@
         <v>2260</v>
       </c>
       <c r="K512" t="n">
-        <v>-11.42857142857143</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L512" t="n">
         <v>498.8</v>
@@ -27187,7 +27209,7 @@
         <v>2272</v>
       </c>
       <c r="K513" t="n">
-        <v>14.66666666666667</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L513" t="n">
         <v>500.3</v>
@@ -27238,7 +27260,7 @@
         <v>2281</v>
       </c>
       <c r="K514" t="n">
-        <v>4.878048780487805</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L514" t="n">
         <v>500.7</v>
@@ -27289,7 +27311,7 @@
         <v>2284</v>
       </c>
       <c r="K515" t="n">
-        <v>-6.329113924050633</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L515" t="n">
         <v>500.8</v>
@@ -27340,7 +27362,7 @@
         <v>2294</v>
       </c>
       <c r="K516" t="n">
-        <v>5.617977528089887</v>
+        <v>1.694915254237288</v>
       </c>
       <c r="L516" t="n">
         <v>501.5</v>
@@ -27391,7 +27413,7 @@
         <v>2300</v>
       </c>
       <c r="K517" t="n">
-        <v>2.173913043478261</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L517" t="n">
         <v>501</v>
@@ -27442,7 +27464,7 @@
         <v>2303</v>
       </c>
       <c r="K518" t="n">
-        <v>-1.052631578947368</v>
+        <v>-16.9811320754717</v>
       </c>
       <c r="L518" t="n">
         <v>500.9</v>
@@ -27493,7 +27515,7 @@
         <v>2305</v>
       </c>
       <c r="K519" t="n">
-        <v>2.083333333333333</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L519" t="n">
         <v>500.2</v>
@@ -27544,7 +27566,7 @@
         <v>2308</v>
       </c>
       <c r="K520" t="n">
-        <v>-2.040816326530612</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L520" t="n">
         <v>499.2</v>
@@ -27595,7 +27617,7 @@
         <v>2313</v>
       </c>
       <c r="K521" t="n">
-        <v>7.07070707070707</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L521" t="n">
         <v>498.8</v>
@@ -27646,7 +27668,7 @@
         <v>2313</v>
       </c>
       <c r="K522" t="n">
-        <v>3.157894736842105</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L522" t="n">
         <v>499.3</v>
@@ -27697,7 +27719,7 @@
         <v>2316</v>
       </c>
       <c r="K523" t="n">
-        <v>5.376344086021505</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L523" t="n">
         <v>498.3</v>
@@ -27748,7 +27770,7 @@
         <v>2319</v>
       </c>
       <c r="K524" t="n">
-        <v>6.382978723404255</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L524" t="n">
         <v>498.5</v>
@@ -27799,7 +27821,7 @@
         <v>2323</v>
       </c>
       <c r="K525" t="n">
-        <v>2.040816326530612</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L525" t="n">
         <v>498.6</v>
@@ -27850,7 +27872,7 @@
         <v>2329</v>
       </c>
       <c r="K526" t="n">
-        <v>4</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L526" t="n">
         <v>498.3</v>
@@ -27901,7 +27923,7 @@
         <v>2331</v>
       </c>
       <c r="K527" t="n">
-        <v>-4.166666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L527" t="n">
         <v>498.4</v>
@@ -27952,7 +27974,7 @@
         <v>2334</v>
       </c>
       <c r="K528" t="n">
-        <v>6.521739130434782</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L528" t="n">
         <v>499.1</v>
@@ -28003,7 +28025,7 @@
         <v>2337</v>
       </c>
       <c r="K529" t="n">
-        <v>-5.747126436781609</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L529" t="n">
         <v>499.3</v>
@@ -28054,7 +28076,7 @@
         <v>2337</v>
       </c>
       <c r="K530" t="n">
-        <v>-5.747126436781609</v>
+        <v>0</v>
       </c>
       <c r="L530" t="n">
         <v>499.8</v>
@@ -28105,7 +28127,7 @@
         <v>2338</v>
       </c>
       <c r="K531" t="n">
-        <v>-3.448275862068965</v>
+        <v>4</v>
       </c>
       <c r="L531" t="n">
         <v>499.9</v>
@@ -28156,7 +28178,7 @@
         <v>2339</v>
       </c>
       <c r="K532" t="n">
-        <v>6.329113924050633</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L532" t="n">
         <v>499.9</v>
@@ -28207,7 +28229,7 @@
         <v>2339</v>
       </c>
       <c r="K533" t="n">
-        <v>-10.44776119402985</v>
+        <v>0</v>
       </c>
       <c r="L533" t="n">
         <v>500.2</v>
@@ -28258,7 +28280,7 @@
         <v>2344</v>
       </c>
       <c r="K534" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L534" t="n">
         <v>500.7</v>
@@ -28309,7 +28331,7 @@
         <v>2345</v>
       </c>
       <c r="K535" t="n">
-        <v>18.0327868852459</v>
+        <v>25</v>
       </c>
       <c r="L535" t="n">
         <v>501.7</v>
@@ -28360,7 +28382,7 @@
         <v>2346</v>
       </c>
       <c r="K536" t="n">
-        <v>3.846153846153846</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L536" t="n">
         <v>502.2</v>
@@ -28411,7 +28433,7 @@
         <v>2347</v>
       </c>
       <c r="K537" t="n">
-        <v>19.14893617021277</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L537" t="n">
         <v>503</v>
@@ -28462,7 +28484,7 @@
         <v>2347</v>
       </c>
       <c r="K538" t="n">
-        <v>27.27272727272727</v>
+        <v>80</v>
       </c>
       <c r="L538" t="n">
         <v>503.5</v>
@@ -28513,7 +28535,7 @@
         <v>2348</v>
       </c>
       <c r="K539" t="n">
-        <v>25.58139534883721</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L539" t="n">
         <v>504.4</v>
@@ -28564,7 +28586,7 @@
         <v>2349</v>
       </c>
       <c r="K540" t="n">
-        <v>36.58536585365854</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L540" t="n">
         <v>505.4</v>
@@ -28615,7 +28637,7 @@
         <v>2349</v>
       </c>
       <c r="K541" t="n">
-        <v>27.77777777777778</v>
+        <v>100</v>
       </c>
       <c r="L541" t="n">
         <v>506.3</v>
@@ -28666,7 +28688,7 @@
         <v>2352</v>
       </c>
       <c r="K542" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L542" t="n">
         <v>507.6</v>
@@ -28717,7 +28739,7 @@
         <v>2356</v>
       </c>
       <c r="K543" t="n">
-        <v>30</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L543" t="n">
         <v>508.5</v>
@@ -28768,7 +28790,7 @@
         <v>2356</v>
       </c>
       <c r="K544" t="n">
-        <v>24.32432432432433</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L544" t="n">
         <v>508.9</v>
@@ -28819,7 +28841,7 @@
         <v>2357</v>
       </c>
       <c r="K545" t="n">
-        <v>41.17647058823529</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L545" t="n">
         <v>509.3</v>
@@ -28870,7 +28892,7 @@
         <v>2362</v>
       </c>
       <c r="K546" t="n">
-        <v>39.39393939393939</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L546" t="n">
         <v>510.1</v>
@@ -28972,7 +28994,7 @@
         <v>2364</v>
       </c>
       <c r="K548" t="n">
-        <v>46.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L548" t="n">
         <v>511.8</v>
@@ -29023,7 +29045,7 @@
         <v>2366</v>
       </c>
       <c r="K549" t="n">
-        <v>51.72413793103448</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L549" t="n">
         <v>512.4</v>
@@ -29074,7 +29096,7 @@
         <v>2369</v>
       </c>
       <c r="K550" t="n">
-        <v>56.25</v>
+        <v>40</v>
       </c>
       <c r="L550" t="n">
         <v>513.2</v>
@@ -29125,7 +29147,7 @@
         <v>2369</v>
       </c>
       <c r="K551" t="n">
-        <v>54.83870967741935</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L551" t="n">
         <v>514</v>
@@ -29176,7 +29198,7 @@
         <v>2370</v>
       </c>
       <c r="K552" t="n">
-        <v>54.83870967741935</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L552" t="n">
         <v>514.4</v>
@@ -29227,7 +29249,7 @@
         <v>2373</v>
       </c>
       <c r="K553" t="n">
-        <v>58.82352941176471</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L553" t="n">
         <v>515.5</v>
@@ -29278,7 +29300,7 @@
         <v>2377</v>
       </c>
       <c r="K554" t="n">
-        <v>57.57575757575758</v>
+        <v>70</v>
       </c>
       <c r="L554" t="n">
         <v>517</v>
@@ -29329,7 +29351,7 @@
         <v>2381</v>
       </c>
       <c r="K555" t="n">
-        <v>38.88888888888889</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L555" t="n">
         <v>518</v>
@@ -29380,7 +29402,7 @@
         <v>2382</v>
       </c>
       <c r="K556" t="n">
-        <v>38.88888888888889</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L556" t="n">
         <v>518.6</v>
@@ -29431,7 +29453,7 @@
         <v>2384</v>
       </c>
       <c r="K557" t="n">
-        <v>40.54054054054054</v>
+        <v>30</v>
       </c>
       <c r="L557" t="n">
         <v>519.3</v>
@@ -29482,7 +29504,7 @@
         <v>2387</v>
       </c>
       <c r="K558" t="n">
-        <v>30</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L558" t="n">
         <v>519.6</v>
@@ -29533,7 +29555,7 @@
         <v>2406</v>
       </c>
       <c r="K559" t="n">
-        <v>51.72413793103448</v>
+        <v>56.75675675675676</v>
       </c>
       <c r="L559" t="n">
         <v>522</v>
@@ -29584,7 +29606,7 @@
         <v>2409</v>
       </c>
       <c r="K560" t="n">
-        <v>53.33333333333334</v>
+        <v>60</v>
       </c>
       <c r="L560" t="n">
         <v>524.4</v>
@@ -29635,7 +29657,7 @@
         <v>2411</v>
       </c>
       <c r="K561" t="n">
-        <v>48.38709677419355</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L561" t="n">
         <v>526.6</v>
@@ -29686,7 +29708,7 @@
         <v>2414</v>
       </c>
       <c r="K562" t="n">
-        <v>48.38709677419355</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L562" t="n">
         <v>529.2</v>
@@ -29737,7 +29759,7 @@
         <v>2417</v>
       </c>
       <c r="K563" t="n">
-        <v>50.81967213114754</v>
+        <v>40</v>
       </c>
       <c r="L563" t="n">
         <v>531.2</v>
@@ -29788,7 +29810,7 @@
         <v>2421</v>
       </c>
       <c r="K564" t="n">
-        <v>41.53846153846154</v>
+        <v>40</v>
       </c>
       <c r="L564" t="n">
         <v>532.4</v>
@@ -29839,7 +29861,7 @@
         <v>2429</v>
       </c>
       <c r="K565" t="n">
-        <v>25</v>
+        <v>14.8936170212766</v>
       </c>
       <c r="L565" t="n">
         <v>533.2</v>
@@ -29890,7 +29912,7 @@
         <v>2436</v>
       </c>
       <c r="K566" t="n">
-        <v>8.108108108108109</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L566" t="n">
         <v>533.2</v>
@@ -29941,7 +29963,7 @@
         <v>2439</v>
       </c>
       <c r="K567" t="n">
-        <v>10.52631578947368</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L567" t="n">
         <v>533.3</v>
@@ -29992,7 +30014,7 @@
         <v>2443</v>
       </c>
       <c r="K568" t="n">
-        <v>3.79746835443038</v>
+        <v>-51.35135135135135</v>
       </c>
       <c r="L568" t="n">
         <v>533.3</v>

--- a/BackTest/2019-10-31 BackTest DAD.xlsx
+++ b/BackTest/2019-10-31 BackTest DAD.xlsx
@@ -451,17 +451,13 @@
         <v>401.1166666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>395</v>
-      </c>
-      <c r="K2" t="n">
-        <v>395</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>400.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>395</v>
-      </c>
-      <c r="K3" t="n">
-        <v>395</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>400.6833333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>394</v>
-      </c>
-      <c r="K4" t="n">
-        <v>395</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>400.2333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>388</v>
-      </c>
-      <c r="K5" t="n">
-        <v>395</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>399.8333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>392</v>
-      </c>
-      <c r="K6" t="n">
-        <v>395</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>399.45</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>391</v>
-      </c>
-      <c r="K7" t="n">
-        <v>395</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>399.05</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>392</v>
-      </c>
-      <c r="K8" t="n">
-        <v>395</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>398.7166666666666</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>391</v>
-      </c>
-      <c r="K9" t="n">
-        <v>395</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>398.2833333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>392</v>
-      </c>
-      <c r="K10" t="n">
-        <v>395</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>397.8666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>392</v>
-      </c>
-      <c r="K11" t="n">
-        <v>395</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>397.7833333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>395</v>
-      </c>
-      <c r="K12" t="n">
-        <v>395</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>397.5666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>392</v>
-      </c>
-      <c r="K13" t="n">
-        <v>395</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>397.4333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>395</v>
-      </c>
-      <c r="K14" t="n">
-        <v>395</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>397.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>395</v>
-      </c>
-      <c r="K15" t="n">
-        <v>395</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>397.1666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>396</v>
-      </c>
-      <c r="K16" t="n">
-        <v>395</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>397.05</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>396</v>
-      </c>
-      <c r="K17" t="n">
-        <v>395</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>396.9666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>399</v>
-      </c>
-      <c r="K18" t="n">
-        <v>395</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>396.8833333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>401</v>
-      </c>
-      <c r="K19" t="n">
-        <v>395</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>396.7833333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>401</v>
-      </c>
-      <c r="K20" t="n">
-        <v>395</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>396.6833333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>401</v>
-      </c>
-      <c r="K21" t="n">
-        <v>395</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>396.6333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>401</v>
-      </c>
-      <c r="K22" t="n">
-        <v>395</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>396.5833333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>401</v>
-      </c>
-      <c r="K23" t="n">
-        <v>395</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>396.55</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>401</v>
-      </c>
-      <c r="K24" t="n">
-        <v>395</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>396.5166666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>401</v>
-      </c>
-      <c r="K25" t="n">
-        <v>395</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>396.4833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>401</v>
-      </c>
-      <c r="K26" t="n">
-        <v>395</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>396.45</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>401</v>
-      </c>
-      <c r="K27" t="n">
-        <v>395</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>396.4166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>401</v>
-      </c>
-      <c r="K28" t="n">
-        <v>395</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>396.4</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>399</v>
-      </c>
-      <c r="K29" t="n">
-        <v>395</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>396.3833333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>400</v>
-      </c>
-      <c r="K30" t="n">
-        <v>395</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>396.3</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>396</v>
-      </c>
-      <c r="K31" t="n">
-        <v>395</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>396.2166666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>396</v>
-      </c>
-      <c r="K32" t="n">
-        <v>395</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>396.2666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>399</v>
-      </c>
-      <c r="K33" t="n">
-        <v>395</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>396.3166666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>402</v>
-      </c>
-      <c r="K34" t="n">
-        <v>395</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>396.3333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>401</v>
-      </c>
-      <c r="K35" t="n">
-        <v>395</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>396.3833333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>399</v>
-      </c>
-      <c r="K36" t="n">
-        <v>395</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>396.4333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>399</v>
-      </c>
-      <c r="K37" t="n">
-        <v>395</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>396.4833333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>399</v>
-      </c>
-      <c r="K38" t="n">
-        <v>395</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>396.4333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>399</v>
-      </c>
-      <c r="K39" t="n">
-        <v>395</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>396.4666666666666</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>396</v>
-      </c>
-      <c r="K40" t="n">
-        <v>395</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2124,22 +1816,14 @@
         <v>396.6333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>400</v>
-      </c>
-      <c r="K41" t="n">
-        <v>395</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2167,22 +1851,14 @@
         <v>396.85</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>400</v>
-      </c>
-      <c r="K42" t="n">
-        <v>395</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2210,22 +1886,14 @@
         <v>397.1666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>405</v>
-      </c>
-      <c r="K43" t="n">
-        <v>395</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +1921,14 @@
         <v>397.5666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>416</v>
-      </c>
-      <c r="K44" t="n">
-        <v>395</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +1956,14 @@
         <v>397.95</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>416</v>
-      </c>
-      <c r="K45" t="n">
-        <v>395</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2339,22 +1991,14 @@
         <v>398.3666666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>418</v>
-      </c>
-      <c r="K46" t="n">
-        <v>395</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2388,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>395</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2429,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>395</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2470,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>395</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2511,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>395</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2552,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>395</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2593,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>395</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2634,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>395</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2675,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>395</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2716,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>395</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2757,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>395</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2798,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>395</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2836,17 +2414,11 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>395</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2877,17 +2449,11 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>395</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2921,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>395</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2962,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>395</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3003,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>395</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3044,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>395</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3085,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>395</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3126,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>395</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3167,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>395</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3208,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>395</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>395</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3290,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>395</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3331,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>395</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3372,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>395</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3413,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>395</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3454,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>395</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3495,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>395</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3536,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>395</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3577,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>395</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3618,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>395</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>395</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3700,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>395</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3741,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>395</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3782,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>395</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3823,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>395</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +3286,14 @@
         <v>406.5</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>403</v>
-      </c>
-      <c r="K83" t="n">
-        <v>395</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3901,22 +3321,14 @@
         <v>406.5833333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>406</v>
-      </c>
-      <c r="K84" t="n">
-        <v>395</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3944,22 +3356,14 @@
         <v>406.6666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>406</v>
-      </c>
-      <c r="K85" t="n">
-        <v>395</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3987,22 +3391,14 @@
         <v>406.75</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>406</v>
-      </c>
-      <c r="K86" t="n">
-        <v>395</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4030,22 +3426,14 @@
         <v>406.7666666666667</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>402</v>
-      </c>
-      <c r="K87" t="n">
-        <v>395</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +3461,14 @@
         <v>406.7666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>402</v>
-      </c>
-      <c r="K88" t="n">
-        <v>395</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4116,22 +3496,14 @@
         <v>406.8166666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>403</v>
-      </c>
-      <c r="K89" t="n">
-        <v>395</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4159,22 +3531,14 @@
         <v>406.8333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>401</v>
-      </c>
-      <c r="K90" t="n">
-        <v>395</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4202,22 +3566,14 @@
         <v>406.9</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>400</v>
-      </c>
-      <c r="K91" t="n">
-        <v>395</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4245,22 +3601,14 @@
         <v>406.9833333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>400</v>
-      </c>
-      <c r="K92" t="n">
-        <v>395</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4288,22 +3636,14 @@
         <v>406.95</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>400</v>
-      </c>
-      <c r="K93" t="n">
-        <v>395</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4331,22 +3671,14 @@
         <v>406.95</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>401</v>
-      </c>
-      <c r="K94" t="n">
-        <v>395</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4374,22 +3706,14 @@
         <v>407</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>400</v>
-      </c>
-      <c r="K95" t="n">
-        <v>395</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4417,22 +3741,14 @@
         <v>407.0166666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>400</v>
-      </c>
-      <c r="K96" t="n">
-        <v>395</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4460,22 +3776,14 @@
         <v>407.05</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>401</v>
-      </c>
-      <c r="K97" t="n">
-        <v>395</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4503,22 +3811,14 @@
         <v>407.15</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>404</v>
-      </c>
-      <c r="K98" t="n">
-        <v>395</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4546,22 +3846,14 @@
         <v>407.5</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>405</v>
-      </c>
-      <c r="K99" t="n">
-        <v>395</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4589,22 +3881,14 @@
         <v>407.8166666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>415</v>
-      </c>
-      <c r="K100" t="n">
-        <v>395</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4632,22 +3916,14 @@
         <v>408.1333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>415</v>
-      </c>
-      <c r="K101" t="n">
-        <v>395</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4675,22 +3951,14 @@
         <v>408.3666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>418</v>
-      </c>
-      <c r="K102" t="n">
-        <v>395</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4724,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>395</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4765,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>395</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4806,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>395</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>395</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4888,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>395</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4929,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>395</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4970,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>395</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>395</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5052,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>395</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5087,22 +4301,14 @@
         <v>407.0166666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>403</v>
-      </c>
-      <c r="K112" t="n">
-        <v>395</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5130,22 +4336,14 @@
         <v>406.7666666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>403</v>
-      </c>
-      <c r="K113" t="n">
-        <v>395</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5173,22 +4371,14 @@
         <v>406.5166666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>401</v>
-      </c>
-      <c r="K114" t="n">
-        <v>395</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5216,22 +4406,14 @@
         <v>406.2833333333334</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>401</v>
-      </c>
-      <c r="K115" t="n">
-        <v>395</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5259,22 +4441,14 @@
         <v>406.0833333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>403</v>
-      </c>
-      <c r="K116" t="n">
-        <v>395</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5302,22 +4476,14 @@
         <v>405.9166666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>401</v>
-      </c>
-      <c r="K117" t="n">
-        <v>395</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5345,22 +4511,14 @@
         <v>405.7166666666666</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>401</v>
-      </c>
-      <c r="K118" t="n">
-        <v>395</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5388,22 +4546,14 @@
         <v>405.5</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>400</v>
-      </c>
-      <c r="K119" t="n">
-        <v>395</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5431,22 +4581,14 @@
         <v>405.2666666666667</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>401</v>
-      </c>
-      <c r="K120" t="n">
-        <v>395</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5474,22 +4616,14 @@
         <v>405.0333333333334</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>400</v>
-      </c>
-      <c r="K121" t="n">
-        <v>395</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5517,22 +4651,14 @@
         <v>404.8</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>400</v>
-      </c>
-      <c r="K122" t="n">
-        <v>395</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5560,22 +4686,14 @@
         <v>404.6666666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>406</v>
-      </c>
-      <c r="K123" t="n">
-        <v>395</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5603,22 +4721,14 @@
         <v>404.55</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>404</v>
-      </c>
-      <c r="K124" t="n">
-        <v>395</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5646,22 +4756,14 @@
         <v>404.4833333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>408</v>
-      </c>
-      <c r="K125" t="n">
-        <v>395</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5689,22 +4791,14 @@
         <v>404.4833333333333</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>410</v>
-      </c>
-      <c r="K126" t="n">
-        <v>395</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5732,22 +4826,14 @@
         <v>404.6166666666667</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>410</v>
-      </c>
-      <c r="K127" t="n">
-        <v>395</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5775,22 +4861,14 @@
         <v>404.8166666666667</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>409</v>
-      </c>
-      <c r="K128" t="n">
-        <v>395</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5818,22 +4896,14 @@
         <v>404.9</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>409</v>
-      </c>
-      <c r="K129" t="n">
-        <v>395</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5861,22 +4931,14 @@
         <v>405.0666666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>409</v>
-      </c>
-      <c r="K130" t="n">
-        <v>395</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5904,22 +4966,14 @@
         <v>405.15</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>409</v>
-      </c>
-      <c r="K131" t="n">
-        <v>395</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5947,22 +5001,14 @@
         <v>405.2666666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>415</v>
-      </c>
-      <c r="K132" t="n">
-        <v>395</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5990,22 +5036,14 @@
         <v>405.3833333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>413</v>
-      </c>
-      <c r="K133" t="n">
-        <v>395</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -6033,22 +5071,14 @@
         <v>405.5333333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>413</v>
-      </c>
-      <c r="K134" t="n">
-        <v>395</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6076,22 +5106,14 @@
         <v>405.7</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>415</v>
-      </c>
-      <c r="K135" t="n">
-        <v>395</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6119,22 +5141,14 @@
         <v>405.9166666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>415</v>
-      </c>
-      <c r="K136" t="n">
-        <v>395</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6168,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>395</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>395</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6250,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>395</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6291,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>395</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6332,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>395</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6373,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>395</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6414,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>395</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6455,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>395</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6496,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>395</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6537,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>395</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6578,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>395</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6619,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>395</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6660,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>395</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6701,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>395</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6742,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>395</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6777,22 +5701,14 @@
         <v>407.6666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>406</v>
-      </c>
-      <c r="K152" t="n">
-        <v>395</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6820,22 +5736,14 @@
         <v>407.8166666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>408</v>
-      </c>
-      <c r="K153" t="n">
-        <v>395</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6863,22 +5771,14 @@
         <v>407.95</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>409</v>
-      </c>
-      <c r="K154" t="n">
-        <v>395</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6906,22 +5806,14 @@
         <v>408.0833333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>409</v>
-      </c>
-      <c r="K155" t="n">
-        <v>395</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6949,22 +5841,14 @@
         <v>408.2333333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>409</v>
-      </c>
-      <c r="K156" t="n">
-        <v>395</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6992,22 +5876,14 @@
         <v>408.3666666666667</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>409</v>
-      </c>
-      <c r="K157" t="n">
-        <v>395</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -7035,22 +5911,14 @@
         <v>408.4333333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>409</v>
-      </c>
-      <c r="K158" t="n">
-        <v>395</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -7078,22 +5946,14 @@
         <v>408.3833333333333</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>410</v>
-      </c>
-      <c r="K159" t="n">
-        <v>395</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7121,22 +5981,14 @@
         <v>408.3166666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>411</v>
-      </c>
-      <c r="K160" t="n">
-        <v>395</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7164,22 +6016,14 @@
         <v>408.3166666666667</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>414</v>
-      </c>
-      <c r="K161" t="n">
-        <v>395</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7207,22 +6051,14 @@
         <v>408.5166666666667</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>419</v>
-      </c>
-      <c r="K162" t="n">
-        <v>395</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>395</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7297,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>395</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7338,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>395</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7379,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>395</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7420,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>395</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7461,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>395</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7502,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>395</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7543,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>395</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7584,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>395</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7625,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>395</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7666,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>395</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7707,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>395</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7748,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>395</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7789,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>395</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7830,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>395</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7868,17 +6614,11 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>395</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7909,17 +6649,11 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>395</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7950,17 +6684,11 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>395</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7991,17 +6719,11 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>395</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -8035,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>395</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -8076,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>395</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -8117,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>395</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8158,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>395</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8199,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>395</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8240,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>395</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8281,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>395</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8322,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>395</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8363,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>395</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8404,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>395</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8442,17 +7104,11 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>395</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8483,17 +7139,11 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>395</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8524,17 +7174,11 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>395</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8568,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>395</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8609,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>395</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8650,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>395</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8691,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>395</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8732,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>395</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8773,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>395</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8814,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>395</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8852,19 +7454,13 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>395</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
-        <v>1.69879746835443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -8893,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
@@ -8998,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -9033,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
@@ -9068,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -10570,14 +9166,20 @@
         <v>543.75</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>486</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10605,14 +9207,20 @@
         <v>542.6666666666666</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>489</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10640,14 +9248,20 @@
         <v>541.3</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>485</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10675,14 +9289,20 @@
         <v>539.85</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>480</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10710,14 +9330,20 @@
         <v>538.2666666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>479</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10752,7 +9378,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10787,7 +9417,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10822,7 +9456,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10857,7 +9495,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10892,7 +9534,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10927,7 +9573,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10962,7 +9612,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10997,7 +9651,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11032,7 +9690,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11067,7 +9729,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11102,7 +9768,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11137,7 +9807,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11172,7 +9846,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11207,7 +9885,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11242,7 +9924,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11277,7 +9963,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +10002,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11347,7 +10041,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11382,7 +10080,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11417,7 +10119,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11452,7 +10158,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11487,7 +10197,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11522,7 +10236,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11557,7 +10275,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11592,7 +10314,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11627,7 +10353,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11662,7 +10392,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11697,7 +10431,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11732,7 +10470,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11767,7 +10509,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11802,7 +10548,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11837,7 +10587,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11872,7 +10626,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11907,7 +10665,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11942,7 +10704,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11977,7 +10743,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12012,7 +10782,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12047,7 +10821,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12082,7 +10860,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -12117,7 +10899,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -12152,7 +10938,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -12187,7 +10977,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -12222,7 +11016,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -12257,7 +11055,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12292,7 +11094,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12327,7 +11133,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12362,7 +11172,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12397,7 +11211,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12432,7 +11250,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +11289,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12502,7 +11328,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12537,7 +11367,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12572,7 +11406,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12607,7 +11445,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12642,7 +11484,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12677,7 +11523,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12712,7 +11562,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12747,7 +11601,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12782,7 +11640,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12817,7 +11679,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12852,7 +11718,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12887,7 +11757,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12922,7 +11796,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12957,7 +11835,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12992,7 +11874,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13027,7 +11913,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13062,7 +11952,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13097,7 +11991,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13132,7 +12030,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13167,7 +12069,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13202,7 +12108,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13237,7 +12147,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13272,7 +12186,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13307,7 +12225,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13342,7 +12264,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13377,7 +12303,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13412,7 +12342,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13447,7 +12381,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13482,7 +12420,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13517,7 +12459,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13552,7 +12498,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13587,7 +12537,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +12576,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13657,7 +12615,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13692,7 +12654,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13727,7 +12693,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13762,7 +12732,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13797,7 +12771,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13832,7 +12810,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13867,7 +12849,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13902,7 +12888,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13937,7 +12927,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13972,7 +12966,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14007,7 +13005,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14042,7 +13044,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14077,7 +13083,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14112,7 +13122,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14147,7 +13161,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14182,7 +13200,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14217,7 +13239,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14252,7 +13278,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14287,7 +13317,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14322,7 +13356,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14357,7 +13395,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14392,7 +13434,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14427,7 +13473,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14462,7 +13512,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14497,7 +13551,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14532,7 +13590,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14567,7 +13629,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14602,7 +13668,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14637,7 +13707,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14672,7 +13746,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14707,7 +13785,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14742,7 +13824,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +13863,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14812,7 +13902,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14847,7 +13941,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14882,7 +13980,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14917,7 +14019,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14952,7 +14058,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14987,7 +14097,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -15022,7 +14136,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -15057,7 +14175,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -15092,7 +14214,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -15127,7 +14253,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15162,7 +14292,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15197,7 +14331,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15232,7 +14370,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15267,7 +14409,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15302,7 +14448,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15337,7 +14487,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15372,7 +14526,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15407,7 +14565,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15442,7 +14604,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15477,7 +14643,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15512,7 +14682,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15547,7 +14721,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15582,7 +14760,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15617,7 +14799,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15652,7 +14838,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15687,7 +14877,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15722,7 +14916,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15757,7 +14955,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15792,7 +14994,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15827,7 +15033,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15862,7 +15072,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15897,7 +15111,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +15150,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15967,7 +15189,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -16002,7 +15228,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16037,7 +15267,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16072,7 +15306,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16107,7 +15345,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16142,7 +15384,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16177,7 +15423,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16212,7 +15462,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16247,7 +15501,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16282,7 +15540,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16317,7 +15579,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16352,7 +15618,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16387,7 +15657,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16422,7 +15696,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16457,7 +15735,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16492,7 +15774,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16527,7 +15813,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16562,7 +15852,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16597,7 +15891,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16632,7 +15930,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16667,7 +15969,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16702,7 +16008,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16737,7 +16047,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16772,7 +16086,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16807,7 +16125,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16842,7 +16164,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16877,7 +16203,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16912,7 +16242,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16947,7 +16281,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16982,7 +16320,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17017,7 +16359,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17052,7 +16398,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +16437,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17122,7 +16476,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17157,7 +16515,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17192,7 +16554,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17227,7 +16593,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17262,7 +16632,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17297,7 +16671,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17332,7 +16710,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17367,7 +16749,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17402,7 +16788,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17437,7 +16827,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17472,7 +16866,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17507,7 +16905,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17542,7 +16944,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17577,7 +16983,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17612,7 +17022,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17647,7 +17061,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17682,7 +17100,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17717,7 +17139,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17752,7 +17178,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17787,7 +17217,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17822,7 +17256,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17857,7 +17295,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17892,7 +17334,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17927,7 +17373,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17962,7 +17412,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17997,7 +17451,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18032,7 +17490,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18067,7 +17529,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18102,7 +17568,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18137,7 +17607,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18172,7 +17646,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18207,7 +17685,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +17724,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18277,7 +17763,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18312,7 +17802,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18347,7 +17841,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18382,7 +17880,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18417,7 +17919,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18452,7 +17958,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18487,7 +17997,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18522,7 +18036,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18557,7 +18075,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18592,7 +18114,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18627,7 +18153,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18662,7 +18192,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18697,7 +18231,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18732,7 +18270,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18767,7 +18309,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18802,7 +18348,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18837,7 +18387,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18872,7 +18426,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18907,7 +18465,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18942,7 +18504,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18977,7 +18543,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19012,7 +18582,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19047,7 +18621,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19082,7 +18660,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19117,7 +18699,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19152,7 +18738,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19187,7 +18777,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19222,7 +18816,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19257,7 +18855,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19292,7 +18894,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19327,7 +18933,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19362,7 +18972,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +19011,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19432,7 +19050,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19467,7 +19089,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19502,7 +19128,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19537,7 +19167,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19572,7 +19206,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19607,7 +19245,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19642,7 +19284,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19677,7 +19323,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19712,7 +19362,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19747,7 +19401,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19782,7 +19440,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19817,7 +19479,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19852,7 +19518,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19887,7 +19557,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19922,7 +19596,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19957,7 +19635,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19992,7 +19674,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20027,7 +19713,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20062,7 +19752,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20097,7 +19791,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20132,7 +19830,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20167,7 +19869,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20202,7 +19908,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20237,7 +19947,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20272,7 +19986,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20307,7 +20025,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20342,7 +20064,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20377,7 +20103,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20412,7 +20142,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20447,7 +20181,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20482,7 +20220,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20517,7 +20259,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20298,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20587,7 +20337,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20622,7 +20376,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20657,7 +20415,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20692,7 +20454,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20727,7 +20493,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20762,7 +20532,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20797,7 +20571,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20832,7 +20610,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20867,7 +20649,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20902,7 +20688,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20937,7 +20727,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-31 BackTest DAD.xlsx
+++ b/BackTest/2019-10-31 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1428631.817</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-1428631.817</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>407</v>
+      </c>
+      <c r="J3" t="n">
+        <v>407</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-1265135.054</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>407</v>
+      </c>
+      <c r="J4" t="n">
+        <v>407</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-1263699.0556</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>415</v>
+      </c>
+      <c r="J5" t="n">
+        <v>407</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-1264342.6124</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>416</v>
+      </c>
+      <c r="J6" t="n">
+        <v>407</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-1263673.9786</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>415</v>
+      </c>
+      <c r="J7" t="n">
+        <v>407</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-1263796.758</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>416</v>
+      </c>
+      <c r="J8" t="n">
+        <v>407</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>-1261396.568173206</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>413</v>
+      </c>
+      <c r="J9" t="n">
+        <v>407</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>-1266919.515373206</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>418</v>
+      </c>
+      <c r="J10" t="n">
+        <v>407</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>-1275544.778773206</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>417</v>
+      </c>
+      <c r="J11" t="n">
+        <v>407</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>-1272548.338073206</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>400</v>
+      </c>
+      <c r="J12" t="n">
+        <v>407</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>-1272590.574673206</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>405</v>
+      </c>
+      <c r="J13" t="n">
+        <v>407</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>-1272590.574673206</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>403</v>
+      </c>
+      <c r="J14" t="n">
+        <v>407</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,15 +972,19 @@
         <v>-1272548.338073206</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>403</v>
       </c>
       <c r="J15" t="n">
-        <v>403</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>407</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,17 +1013,17 @@
         <v>-1271340.833273206</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>404</v>
       </c>
       <c r="J16" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -958,17 +1054,17 @@
         <v>-1271340.833273206</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>405</v>
       </c>
       <c r="J17" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -999,15 +1095,19 @@
         <v>-1271340.833273206</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>405</v>
       </c>
       <c r="J18" t="n">
-        <v>405</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>407</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1036,17 +1136,17 @@
         <v>-1266986.431173206</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>405</v>
       </c>
       <c r="J19" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1077,13 +1177,13 @@
         <v>-1266986.431173206</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>407</v>
       </c>
       <c r="J20" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1118,13 +1218,13 @@
         <v>-1267571.572673206</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>407</v>
       </c>
       <c r="J21" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1159,11 +1259,13 @@
         <v>-1267571.572673206</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>404</v>
+      </c>
       <c r="J22" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1198,13 +1300,13 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>404</v>
       </c>
       <c r="J23" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1239,11 +1341,13 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>403</v>
+      </c>
       <c r="J24" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1278,11 +1382,13 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>403</v>
+      </c>
       <c r="J25" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1317,11 +1423,13 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>403</v>
+      </c>
       <c r="J26" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1356,13 +1464,13 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>403</v>
       </c>
       <c r="J27" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1397,13 +1505,13 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>403</v>
       </c>
       <c r="J28" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1438,13 +1546,13 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>401</v>
       </c>
       <c r="J29" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1479,13 +1587,13 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>401</v>
       </c>
       <c r="J30" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1520,13 +1628,13 @@
         <v>-1274341.902873206</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>401</v>
       </c>
       <c r="J31" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1561,13 +1669,13 @@
         <v>-1274343.198773206</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>400</v>
       </c>
       <c r="J32" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1602,13 +1710,13 @@
         <v>-1279766.784473206</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>399</v>
       </c>
       <c r="J33" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1643,13 +1751,13 @@
         <v>-1280237.292473206</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>398</v>
       </c>
       <c r="J34" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1684,13 +1792,13 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>397</v>
       </c>
       <c r="J35" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1725,13 +1833,13 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>396</v>
       </c>
       <c r="J36" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1766,13 +1874,13 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>396</v>
       </c>
       <c r="J37" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1807,13 +1915,13 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>396</v>
       </c>
       <c r="J38" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1848,13 +1956,13 @@
         <v>-1291095.771673206</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>396</v>
       </c>
       <c r="J39" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1889,13 +1997,13 @@
         <v>-1307685.474673206</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>394</v>
       </c>
       <c r="J40" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1930,13 +2038,13 @@
         <v>-1307512.218073206</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>390</v>
       </c>
       <c r="J41" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1971,13 +2079,13 @@
         <v>-1307512.218073206</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>391</v>
       </c>
       <c r="J42" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2012,13 +2120,13 @@
         <v>-1302553.555073206</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>391</v>
       </c>
       <c r="J43" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2053,11 +2161,13 @@
         <v>-1302217.063173206</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>392</v>
+      </c>
       <c r="J44" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2092,11 +2202,13 @@
         <v>-1302217.063173206</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>393</v>
+      </c>
       <c r="J45" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2131,11 +2243,13 @@
         <v>-1343521.610673206</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>393</v>
+      </c>
       <c r="J46" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2170,11 +2284,13 @@
         <v>-1343230.345873206</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>392</v>
+      </c>
       <c r="J47" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2209,11 +2325,13 @@
         <v>-1363971.928973206</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>398</v>
+      </c>
       <c r="J48" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2248,11 +2366,13 @@
         <v>-1363277.043973206</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>396</v>
+      </c>
       <c r="J49" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2287,11 +2407,13 @@
         <v>-1359445.102473206</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>397</v>
+      </c>
       <c r="J50" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2326,13 +2448,13 @@
         <v>-1359227.159473206</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>399</v>
       </c>
       <c r="J51" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2367,11 +2489,13 @@
         <v>-1359227.159473206</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>400</v>
+      </c>
       <c r="J52" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2406,11 +2530,13 @@
         <v>-1363066.458273206</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>400</v>
+      </c>
       <c r="J53" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2445,11 +2571,13 @@
         <v>-1365692.458273206</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>399</v>
+      </c>
       <c r="J54" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2484,11 +2612,13 @@
         <v>-1365692.458273206</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>397</v>
+      </c>
       <c r="J55" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2523,11 +2653,13 @@
         <v>-1367871.458273206</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>397</v>
+      </c>
       <c r="J56" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2562,11 +2694,13 @@
         <v>-1366236.899307212</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>396</v>
+      </c>
       <c r="J57" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2601,11 +2735,13 @@
         <v>-1366236.899307212</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>397</v>
+      </c>
       <c r="J58" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2640,11 +2776,13 @@
         <v>-1364980.241107212</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>397</v>
+      </c>
       <c r="J59" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2679,11 +2817,13 @@
         <v>-1366610.713607212</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>398</v>
+      </c>
       <c r="J60" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2718,11 +2858,13 @@
         <v>-1366525.590307212</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>393</v>
+      </c>
       <c r="J61" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2757,11 +2899,13 @@
         <v>-1368360.821307212</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>395</v>
+      </c>
       <c r="J62" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2796,11 +2940,13 @@
         <v>-1368360.821307212</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>394</v>
+      </c>
       <c r="J63" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2835,11 +2981,13 @@
         <v>-1368548.122507212</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>394</v>
+      </c>
       <c r="J64" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2874,11 +3022,13 @@
         <v>-1368467.857407212</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>388</v>
+      </c>
       <c r="J65" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2913,11 +3063,13 @@
         <v>-1368467.857407212</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>392</v>
+      </c>
       <c r="J66" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2952,11 +3104,13 @@
         <v>-1368467.857407212</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>392</v>
+      </c>
       <c r="J67" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2991,11 +3145,13 @@
         <v>-1367285.048707212</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>392</v>
+      </c>
       <c r="J68" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3030,11 +3186,13 @@
         <v>-1367373.196407212</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>393</v>
+      </c>
       <c r="J69" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3069,11 +3227,13 @@
         <v>-1367373.196407212</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>392</v>
+      </c>
       <c r="J70" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3108,11 +3268,13 @@
         <v>-1367345.069907212</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>392</v>
+      </c>
       <c r="J71" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3147,11 +3309,13 @@
         <v>-1367946.451707212</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>395</v>
+      </c>
       <c r="J72" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3186,11 +3350,13 @@
         <v>-1220691.643707213</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>392</v>
+      </c>
       <c r="J73" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3225,11 +3391,13 @@
         <v>-1220691.643707213</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>395</v>
+      </c>
       <c r="J74" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3264,11 +3432,13 @@
         <v>-1165041.643707213</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>395</v>
+      </c>
       <c r="J75" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3303,11 +3473,13 @@
         <v>-1137941.643707213</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>396</v>
+      </c>
       <c r="J76" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3342,11 +3514,13 @@
         <v>-1132890.727407213</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>398</v>
+      </c>
       <c r="J77" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3381,11 +3555,13 @@
         <v>-1132890.727407213</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>400</v>
+      </c>
       <c r="J78" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3420,11 +3596,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>400</v>
+      </c>
       <c r="J79" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3459,11 +3637,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>401</v>
+      </c>
       <c r="J80" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3498,11 +3678,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>401</v>
+      </c>
       <c r="J81" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3537,11 +3719,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>401</v>
+      </c>
       <c r="J82" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3576,11 +3760,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>401</v>
+      </c>
       <c r="J83" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3615,11 +3801,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>401</v>
+      </c>
       <c r="J84" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3654,11 +3842,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>401</v>
+      </c>
       <c r="J85" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3693,11 +3883,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>401</v>
+      </c>
       <c r="J86" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3732,11 +3924,13 @@
         <v>-953363.8128072126</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>401</v>
+      </c>
       <c r="J87" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3771,11 +3965,13 @@
         <v>-992363.8128072126</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>401</v>
+      </c>
       <c r="J88" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3810,11 +4006,13 @@
         <v>-992363.8128072126</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>400</v>
+      </c>
       <c r="J89" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3849,11 +4047,13 @@
         <v>-992376.7943072126</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>400</v>
+      </c>
       <c r="J90" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3888,11 +4088,13 @@
         <v>-992536.2810072126</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>396</v>
+      </c>
       <c r="J91" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3927,11 +4129,13 @@
         <v>-991009.6117072126</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>395</v>
+      </c>
       <c r="J92" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3966,11 +4170,13 @@
         <v>-1334109.611707213</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>402</v>
+      </c>
       <c r="J93" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4005,11 +4211,13 @@
         <v>-1466159.829307213</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>401</v>
+      </c>
       <c r="J94" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4044,11 +4252,13 @@
         <v>-1276520.286607213</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>398</v>
+      </c>
       <c r="J95" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4083,11 +4293,13 @@
         <v>-1276520.286607213</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>399</v>
+      </c>
       <c r="J96" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4122,11 +4334,13 @@
         <v>-1276520.286607213</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>399</v>
+      </c>
       <c r="J97" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4161,11 +4375,13 @@
         <v>-1303304.294107213</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>399</v>
+      </c>
       <c r="J98" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4200,11 +4416,13 @@
         <v>-1300490.273807213</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>393</v>
+      </c>
       <c r="J99" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4239,11 +4457,13 @@
         <v>-1300478.158807213</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>396</v>
+      </c>
       <c r="J100" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4278,11 +4498,13 @@
         <v>-1296484.027207213</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>400</v>
+      </c>
       <c r="J101" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4317,11 +4539,13 @@
         <v>-1294598.917607213</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>404</v>
+      </c>
       <c r="J102" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4356,11 +4580,13 @@
         <v>-1287532.826207213</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>410</v>
+      </c>
       <c r="J103" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4395,11 +4621,13 @@
         <v>-1287532.826207213</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>416</v>
+      </c>
       <c r="J104" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4434,11 +4662,13 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>416</v>
+      </c>
       <c r="J105" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4473,11 +4703,13 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>418</v>
+      </c>
       <c r="J106" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4512,11 +4744,13 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>418</v>
+      </c>
       <c r="J107" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4551,11 +4785,13 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>418</v>
+      </c>
       <c r="J108" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4590,11 +4826,13 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>418</v>
+      </c>
       <c r="J109" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4629,11 +4867,13 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>418</v>
+      </c>
       <c r="J110" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4668,11 +4908,13 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>418</v>
+      </c>
       <c r="J111" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4707,11 +4949,13 @@
         <v>-566906.3820072131</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>418</v>
+      </c>
       <c r="J112" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4746,13 +4990,13 @@
         <v>-566906.3820072131</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>416</v>
       </c>
       <c r="J113" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4787,13 +5031,13 @@
         <v>-2535306.382007213</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>416</v>
       </c>
       <c r="J114" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4828,11 +5072,13 @@
         <v>-2535306.382007213</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>415</v>
+      </c>
       <c r="J115" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4867,11 +5113,13 @@
         <v>-3907206.382007213</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>415</v>
+      </c>
       <c r="J116" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4906,11 +5154,13 @@
         <v>-2966629.170407213</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>411</v>
+      </c>
       <c r="J117" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4945,11 +5195,13 @@
         <v>-2966629.170407213</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>413</v>
+      </c>
       <c r="J118" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4984,11 +5236,13 @@
         <v>-496029.1704072133</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>413</v>
+      </c>
       <c r="J119" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5023,11 +5277,13 @@
         <v>-496029.1704072133</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>414</v>
+      </c>
       <c r="J120" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5062,13 +5318,11 @@
         <v>-496029.1704072133</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5107,7 +5361,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5146,7 +5400,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5185,7 +5439,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5224,7 +5478,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5259,11 +5513,13 @@
         <v>-1156029.170407213</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>410</v>
+      </c>
       <c r="J126" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5298,11 +5554,13 @@
         <v>-1168885.487907213</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>401</v>
+      </c>
       <c r="J127" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5337,13 +5595,13 @@
         <v>-1168884.487907213</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>397</v>
       </c>
       <c r="J128" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5378,13 +5636,13 @@
         <v>-1169252.357407213</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>404</v>
       </c>
       <c r="J129" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5419,11 +5677,13 @@
         <v>-1169251.357407213</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>399</v>
+      </c>
       <c r="J130" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5458,13 +5718,13 @@
         <v>-1163588.187307213</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>404</v>
       </c>
       <c r="J131" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5499,13 +5759,13 @@
         <v>-1163588.187307213</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>406</v>
       </c>
       <c r="J132" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5540,13 +5800,13 @@
         <v>-1163588.187307213</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>406</v>
       </c>
       <c r="J133" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5581,13 +5841,13 @@
         <v>-1166749.494907213</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>406</v>
       </c>
       <c r="J134" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5622,13 +5882,13 @@
         <v>-1166976.988007213</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>405</v>
       </c>
       <c r="J135" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5663,11 +5923,13 @@
         <v>-1167417.222507213</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>402</v>
+      </c>
       <c r="J136" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5702,11 +5964,13 @@
         <v>-1167404.758507213</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>397</v>
+      </c>
       <c r="J137" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5741,11 +6005,13 @@
         <v>-1167404.758507213</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>403</v>
+      </c>
       <c r="J138" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5784,7 +6050,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5819,11 +6085,13 @@
         <v>-1178777.641607213</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>403</v>
+      </c>
       <c r="J140" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5858,11 +6126,13 @@
         <v>-1178776.641607213</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>398</v>
+      </c>
       <c r="J141" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5897,11 +6167,13 @@
         <v>-1178766.641607213</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>403</v>
+      </c>
       <c r="J142" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5936,11 +6208,13 @@
         <v>-1178765.641607213</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>405</v>
+      </c>
       <c r="J143" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5975,11 +6249,13 @@
         <v>-1178765.641607213</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>406</v>
+      </c>
       <c r="J144" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6014,11 +6290,13 @@
         <v>-1178765.641607213</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>406</v>
+      </c>
       <c r="J145" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6057,7 +6335,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6096,7 +6374,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6131,11 +6409,13 @@
         <v>-1179798.040207213</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>401</v>
+      </c>
       <c r="J148" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6170,11 +6450,13 @@
         <v>-1180316.384607213</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>403</v>
+      </c>
       <c r="J149" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6209,11 +6491,13 @@
         <v>-1181952.954807213</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>401</v>
+      </c>
       <c r="J150" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6252,7 +6536,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6287,11 +6571,13 @@
         <v>-1181952.954807213</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>400</v>
+      </c>
       <c r="J152" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6330,7 +6616,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6369,7 +6655,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6408,7 +6694,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6447,7 +6733,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6486,7 +6772,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6525,7 +6811,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6564,7 +6850,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6603,7 +6889,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6642,7 +6928,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6681,7 +6967,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6720,7 +7006,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6759,7 +7045,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6798,7 +7084,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6837,7 +7123,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6876,7 +7162,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6915,7 +7201,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6954,7 +7240,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6993,7 +7279,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7032,7 +7318,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7071,7 +7357,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7110,7 +7396,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7149,7 +7435,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7188,7 +7474,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7227,7 +7513,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7266,7 +7552,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7305,7 +7591,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7340,13 +7626,11 @@
         <v>-1180729.804880414</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7381,13 +7665,13 @@
         <v>-1180729.804880414</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>400</v>
       </c>
       <c r="J180" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7422,13 +7706,13 @@
         <v>-1180729.804880414</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>400</v>
       </c>
       <c r="J181" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7463,13 +7747,13 @@
         <v>-1180728.604880414</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>400</v>
       </c>
       <c r="J182" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7504,13 +7788,13 @@
         <v>-1180140.371565955</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>406</v>
       </c>
       <c r="J183" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7545,13 +7829,13 @@
         <v>-1145970.968265955</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>407</v>
       </c>
       <c r="J184" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7586,13 +7870,13 @@
         <v>-1145970.968265955</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>410</v>
       </c>
       <c r="J185" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7627,13 +7911,13 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>410</v>
       </c>
       <c r="J186" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7668,13 +7952,13 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>409</v>
       </c>
       <c r="J187" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7709,13 +7993,13 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>409</v>
       </c>
       <c r="J188" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7750,13 +8034,13 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>409</v>
       </c>
       <c r="J189" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7791,13 +8075,13 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>409</v>
       </c>
       <c r="J190" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7832,13 +8116,13 @@
         <v>-1254042.128865954</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>409</v>
       </c>
       <c r="J191" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7873,13 +8157,13 @@
         <v>-1254042.128865954</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>413</v>
       </c>
       <c r="J192" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7914,13 +8198,11 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7955,13 +8237,13 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>415</v>
       </c>
       <c r="J194" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7996,13 +8278,11 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8037,13 +8317,11 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8078,13 +8356,11 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8119,13 +8395,11 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8160,13 +8434,11 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8201,13 +8473,11 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8246,7 +8516,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8285,7 +8555,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8320,13 +8590,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8361,13 +8629,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8402,13 +8668,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8443,13 +8707,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8484,13 +8746,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8525,13 +8785,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8566,13 +8824,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8607,13 +8863,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8648,13 +8902,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8689,13 +8941,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8730,13 +8980,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8771,13 +9019,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8812,13 +9058,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8853,13 +9097,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8894,13 +9136,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8935,13 +9175,13 @@
         <v>-1572969.040865954</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>409</v>
       </c>
       <c r="J218" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8976,13 +9216,13 @@
         <v>-1572969.040865954</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>411</v>
       </c>
       <c r="J219" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9017,13 +9257,11 @@
         <v>-1554480.222062107</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9058,13 +9296,11 @@
         <v>-1504570.277162107</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9099,13 +9335,11 @@
         <v>-1504570.277162107</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9140,13 +9374,11 @@
         <v>-1493141.261574325</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9181,13 +9413,11 @@
         <v>-1460064.095562107</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>442</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9222,13 +9452,11 @@
         <v>-1429001.131717663</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9263,13 +9491,11 @@
         <v>-1429001.131717663</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9304,13 +9530,11 @@
         <v>-1429001.131717663</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9345,13 +9569,11 @@
         <v>-1430063.667317664</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>449</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9386,13 +9608,11 @@
         <v>-1422324.208517664</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9431,7 +9651,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9470,7 +9690,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9509,7 +9729,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9548,7 +9768,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9587,7 +9807,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9626,7 +9846,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9665,7 +9885,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9704,7 +9924,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9743,7 +9963,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9782,7 +10002,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9821,7 +10041,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9860,7 +10080,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9899,7 +10119,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9938,7 +10158,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9977,7 +10197,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10016,7 +10236,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10055,7 +10275,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10094,7 +10314,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10133,7 +10353,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10172,7 +10392,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10211,7 +10431,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10250,7 +10470,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10289,7 +10509,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10328,7 +10548,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10367,7 +10587,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10406,7 +10626,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10445,7 +10665,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10484,7 +10704,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10523,7 +10743,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10562,7 +10782,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10601,7 +10821,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10640,7 +10860,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10679,7 +10899,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10714,23 +10934,21 @@
         <v>-902740.8150751125</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
-        <v>1.53820987654321</v>
-      </c>
-      <c r="M263" t="n">
-        <v>1.045</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10755,15 +10973,23 @@
         <v>-953186.9672847895</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>407</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>1.501142506142506</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1.017241379310345</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10788,7 +11014,7 @@
         <v>-1004241.889025662</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10821,7 +11047,7 @@
         <v>-1015820.223611956</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10854,7 +11080,7 @@
         <v>-1084021.921125506</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10887,7 +11113,7 @@
         <v>-1173194.123325506</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10920,7 +11146,7 @@
         <v>-1251185.644425506</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10953,7 +11179,7 @@
         <v>-1210703.411225506</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10986,7 +11212,7 @@
         <v>-1326240.944325506</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -11019,7 +11245,7 @@
         <v>-1286961.687433054</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11052,7 +11278,7 @@
         <v>-1262900.231090198</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11085,7 +11311,7 @@
         <v>-1297217.781190198</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11118,7 +11344,7 @@
         <v>-1289145.012678967</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11151,7 +11377,7 @@
         <v>-1195020.296776312</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11184,7 +11410,7 @@
         <v>-1209478.903076312</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11217,7 +11443,7 @@
         <v>-1195894.466276312</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11283,7 +11509,7 @@
         <v>-1201451.080797698</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11316,7 +11542,7 @@
         <v>-1204840.300892493</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11349,7 +11575,7 @@
         <v>-1196945.255992493</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11382,7 +11608,7 @@
         <v>-1134005.329818511</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11415,7 +11641,7 @@
         <v>-1131703.710418511</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11448,7 +11674,7 @@
         <v>-1093162.757418511</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11481,7 +11707,7 @@
         <v>-1118851.945891554</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11514,7 +11740,7 @@
         <v>-1097363.426791554</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11547,7 +11773,7 @@
         <v>-1132858.896091554</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11580,7 +11806,7 @@
         <v>-1105713.602891554</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11613,7 +11839,7 @@
         <v>-1090996.467175822</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11646,7 +11872,7 @@
         <v>-1096902.589175822</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11811,7 +12037,7 @@
         <v>-1127423.616139459</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11844,7 +12070,7 @@
         <v>-1187408.433339459</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11877,7 +12103,7 @@
         <v>-1158791.044539459</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11910,7 +12136,7 @@
         <v>-1166604.028639459</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11943,7 +12169,7 @@
         <v>-1160373.635639459</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11976,7 +12202,7 @@
         <v>-1175456.321239459</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12009,7 +12235,7 @@
         <v>-1200068.521139459</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12042,7 +12268,7 @@
         <v>-1212592.539339459</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12075,7 +12301,7 @@
         <v>-1229262.715339459</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12108,7 +12334,7 @@
         <v>-1269998.061139459</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12141,7 +12367,7 @@
         <v>-1185062.595539459</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12174,7 +12400,7 @@
         <v>-1204124.481912404</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12207,7 +12433,7 @@
         <v>-1183168.329228321</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12966,7 +13192,7 @@
         <v>-1253093.573613443</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13989,7 +14215,7 @@
         <v>-1199374.243508427</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14022,7 +14248,7 @@
         <v>-1197305.001208427</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14055,7 +14281,7 @@
         <v>-1204188.804308427</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14088,7 +14314,7 @@
         <v>-1204188.804308427</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14121,7 +14347,7 @@
         <v>-1201988.737108427</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14154,7 +14380,7 @@
         <v>-1201988.737108427</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14253,7 +14479,7 @@
         <v>-1203622.259708427</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14286,7 +14512,7 @@
         <v>-1205067.498508427</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14319,7 +14545,7 @@
         <v>-1203901.489908427</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14352,7 +14578,7 @@
         <v>-1205119.408608427</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14385,7 +14611,7 @@
         <v>-1191070.250100661</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14418,7 +14644,7 @@
         <v>-1179898.868308427</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14451,7 +14677,7 @@
         <v>-1179898.868308427</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14484,7 +14710,7 @@
         <v>-1190301.547708427</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14517,7 +14743,7 @@
         <v>-1190142.315008427</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14550,7 +14776,7 @@
         <v>-1190140.315008427</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14583,7 +14809,7 @@
         <v>-1188260.403309981</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14616,7 +14842,7 @@
         <v>-1190113.860311535</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14649,7 +14875,7 @@
         <v>-1176113.172928803</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14715,7 +14941,7 @@
         <v>-1184414.440999549</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14748,7 +14974,7 @@
         <v>-1176602.361328803</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14781,7 +15007,7 @@
         <v>-1154076.866945122</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14814,7 +15040,7 @@
         <v>-1156328.185945122</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14847,7 +15073,7 @@
         <v>-1178086.110645122</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14880,7 +15106,7 @@
         <v>-1183141.890745122</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14913,7 +15139,7 @@
         <v>-1181790.144345122</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14946,7 +15172,7 @@
         <v>-1187708.528745122</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14979,7 +15205,7 @@
         <v>-1191085.792945122</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15012,7 +15238,7 @@
         <v>-1191085.792945122</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15045,7 +15271,7 @@
         <v>-1186250.633471084</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15078,7 +15304,7 @@
         <v>-1214470.262871084</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15111,7 +15337,7 @@
         <v>-1218560.789771084</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15144,7 +15370,7 @@
         <v>-1200834.529838443</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15177,7 +15403,7 @@
         <v>-1201797.773538443</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15210,7 +15436,7 @@
         <v>-1200391.399838443</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15243,7 +15469,7 @@
         <v>-1200391.399838443</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15276,7 +15502,7 @@
         <v>-1206657.473838443</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15309,7 +15535,7 @@
         <v>-1206869.468838443</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15342,7 +15568,7 @@
         <v>-1206864.468838443</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15375,7 +15601,7 @@
         <v>-1206760.972838443</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15408,7 +15634,7 @@
         <v>-1207142.608638443</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15441,7 +15667,7 @@
         <v>-1207142.608638443</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15474,7 +15700,7 @@
         <v>-1207140.608638443</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15507,7 +15733,7 @@
         <v>-1207140.608638443</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15540,7 +15766,7 @@
         <v>-1214099.558338443</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15573,7 +15799,7 @@
         <v>-1214075.723638443</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15606,7 +15832,7 @@
         <v>-1214078.723638443</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15639,7 +15865,7 @@
         <v>-1214078.723638443</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15672,7 +15898,7 @@
         <v>-1215075.768038443</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15705,7 +15931,7 @@
         <v>-1215073.768038443</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15936,7 +16162,7 @@
         <v>-1258809.821238443</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16827,7 +17053,7 @@
         <v>-1244080.917338443</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16860,7 +17086,7 @@
         <v>-1249227.426838443</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -18906,7 +19132,7 @@
         <v>-1280803.403047515</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18939,7 +19165,7 @@
         <v>-1277209.114747515</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18972,7 +19198,7 @@
         <v>-1281265.607147516</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19005,7 +19231,7 @@
         <v>-1281265.607147516</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19038,7 +19264,7 @@
         <v>-1283719.920747516</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19071,7 +19297,7 @@
         <v>-1273067.299666705</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19104,7 +19330,7 @@
         <v>-1273086.352066705</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19137,7 +19363,7 @@
         <v>-1272689.923777274</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19170,7 +19396,7 @@
         <v>-1275914.549377274</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19236,7 +19462,7 @@
         <v>-1274534.04434495</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19269,7 +19495,7 @@
         <v>-1275483.021544951</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19302,7 +19528,7 @@
         <v>-1275350.689844951</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19335,7 +19561,7 @@
         <v>-1275350.689844951</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19368,7 +19594,7 @@
         <v>-1283543.62124495</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19401,7 +19627,7 @@
         <v>-1280265.06324495</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19434,7 +19660,7 @@
         <v>-1264253.927047516</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19467,7 +19693,7 @@
         <v>-1263496.828647516</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19500,7 +19726,7 @@
         <v>-1253458.067047515</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19533,7 +19759,7 @@
         <v>-1234636.131147515</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19566,7 +19792,7 @@
         <v>-1253791.952058539</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19599,7 +19825,7 @@
         <v>-1254354.452558539</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19632,7 +19858,7 @@
         <v>-1246693.175058539</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19665,7 +19891,7 @@
         <v>-1236121.893069562</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19698,7 +19924,7 @@
         <v>-1216840.793769562</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19731,7 +19957,7 @@
         <v>-1134357.796569562</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19764,7 +19990,7 @@
         <v>-1162632.772669369</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19797,7 +20023,7 @@
         <v>-1158591.162569369</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19830,7 +20056,7 @@
         <v>-1168106.671769369</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19863,7 +20089,7 @@
         <v>-1172490.265769369</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19896,7 +20122,7 @@
         <v>-1188220.367469369</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19929,7 +20155,7 @@
         <v>-1171897.110594032</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19962,7 +20188,7 @@
         <v>-1160974.639794032</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19995,7 +20221,7 @@
         <v>-1175320.459794032</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20061,7 +20287,7 @@
         <v>-1193582.310094032</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20094,7 +20320,7 @@
         <v>-1195779.519694032</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20127,7 +20353,7 @@
         <v>-1195385.105994032</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20226,7 +20452,7 @@
         <v>-1204469.013677431</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20259,7 +20485,7 @@
         <v>-1207594.059477431</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20292,7 +20518,7 @@
         <v>-1234137.464977431</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20325,7 +20551,7 @@
         <v>-1233270.023677431</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20358,7 +20584,7 @@
         <v>-1233270.023677431</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20391,7 +20617,7 @@
         <v>-1233271.023677431</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20424,7 +20650,7 @@
         <v>-1233271.023677431</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20457,7 +20683,7 @@
         <v>-1233508.598177431</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20490,7 +20716,7 @@
         <v>-1233467.632277431</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20820,7 +21046,7 @@
         <v>-1238607.079577431</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20853,7 +21079,7 @@
         <v>-1250651.844377431</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20886,7 +21112,7 @@
         <v>-1251818.989377431</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20919,7 +21145,7 @@
         <v>-1243207.655977431</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20952,7 +21178,7 @@
         <v>-1243732.752077431</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20985,7 +21211,7 @@
         <v>-1244256.840877431</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21117,7 +21343,7 @@
         <v>-1229524.435529511</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21282,7 +21508,7 @@
         <v>-1248475.558629511</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21348,7 +21574,7 @@
         <v>-1243561.384029511</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21381,7 +21607,7 @@
         <v>-1245888.816429511</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21414,7 +21640,7 @@
         <v>-1245781.821229511</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21447,7 +21673,7 @@
         <v>-1246297.899929511</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21480,7 +21706,7 @@
         <v>-1246297.899929511</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21513,7 +21739,7 @@
         <v>-1244642.414829511</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21546,7 +21772,7 @@
         <v>-1244643.414829511</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21579,7 +21805,7 @@
         <v>-1244643.414829511</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21612,7 +21838,7 @@
         <v>-1213409.489929511</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21645,7 +21871,7 @@
         <v>-1205720.846533662</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21678,7 +21904,7 @@
         <v>-1205225.952020619</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21711,7 +21937,7 @@
         <v>-1184231.679629511</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21744,7 +21970,7 @@
         <v>-1184231.679629511</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21777,7 +22003,7 @@
         <v>-1181823.327582636</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21810,7 +22036,7 @@
         <v>-1180679.681082636</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21843,7 +22069,7 @@
         <v>-1180679.681082636</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21876,7 +22102,7 @@
         <v>-1174400.779782636</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21909,7 +22135,7 @@
         <v>-1180070.144582636</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21942,7 +22168,7 @@
         <v>-1180070.144582636</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21975,7 +22201,7 @@
         <v>-1178702.258682636</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22008,7 +22234,7 @@
         <v>-1169331.093882636</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22041,7 +22267,7 @@
         <v>-1166253.493782636</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22074,7 +22300,7 @@
         <v>-1159593.493682636</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22107,7 +22333,7 @@
         <v>-1160800.188982636</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22140,7 +22366,7 @@
         <v>-1159338.056682636</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22173,7 +22399,7 @@
         <v>-1159338.056682636</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22206,7 +22432,7 @@
         <v>-1163667.66993167</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22239,7 +22465,7 @@
         <v>-1144280.202080675</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22272,7 +22498,7 @@
         <v>-1133298.781642287</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22305,7 +22531,7 @@
         <v>-1133911.196742287</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22338,7 +22564,7 @@
         <v>-1133761.081842287</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22371,7 +22597,7 @@
         <v>-1133492.783563129</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22382,6 +22608,6 @@
       <c r="M616" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest DAD.xlsx
+++ b/BackTest/2019-10-31 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1428631.817</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-1428631.817</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>407</v>
-      </c>
-      <c r="J3" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-1265135.054</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>407</v>
-      </c>
-      <c r="J4" t="n">
-        <v>407</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-1263699.0556</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>415</v>
-      </c>
-      <c r="J5" t="n">
-        <v>407</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-1264342.6124</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>416</v>
-      </c>
-      <c r="J6" t="n">
-        <v>407</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-1263673.9786</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>415</v>
-      </c>
-      <c r="J7" t="n">
-        <v>407</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-1263796.758</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>416</v>
-      </c>
-      <c r="J8" t="n">
-        <v>407</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-1261396.568173206</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>413</v>
-      </c>
-      <c r="J9" t="n">
-        <v>407</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>-1266919.515373206</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>418</v>
-      </c>
-      <c r="J10" t="n">
-        <v>407</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>-1275544.778773206</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>417</v>
-      </c>
-      <c r="J11" t="n">
-        <v>407</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>-1272548.338073206</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>400</v>
-      </c>
-      <c r="J12" t="n">
-        <v>407</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>-1272590.574673206</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>405</v>
-      </c>
-      <c r="J13" t="n">
-        <v>407</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>-1272590.574673206</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>403</v>
-      </c>
-      <c r="J14" t="n">
-        <v>407</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +880,11 @@
         <v>-1272548.338073206</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>403</v>
-      </c>
-      <c r="J15" t="n">
-        <v>407</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +913,11 @@
         <v>-1271340.833273206</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>404</v>
-      </c>
-      <c r="J16" t="n">
-        <v>407</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +946,11 @@
         <v>-1271340.833273206</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>405</v>
-      </c>
-      <c r="J17" t="n">
-        <v>407</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +979,11 @@
         <v>-1271340.833273206</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>405</v>
-      </c>
-      <c r="J18" t="n">
-        <v>407</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1012,11 @@
         <v>-1266986.431173206</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>405</v>
-      </c>
-      <c r="J19" t="n">
-        <v>407</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1045,11 @@
         <v>-1266986.431173206</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>407</v>
-      </c>
-      <c r="J20" t="n">
-        <v>407</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1078,11 @@
         <v>-1267571.572673206</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>407</v>
-      </c>
-      <c r="J21" t="n">
-        <v>407</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1259,19 +1111,11 @@
         <v>-1267571.572673206</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>404</v>
-      </c>
-      <c r="J22" t="n">
-        <v>407</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1300,19 +1144,11 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>404</v>
-      </c>
-      <c r="J23" t="n">
-        <v>407</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1177,11 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>403</v>
-      </c>
-      <c r="J24" t="n">
-        <v>407</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1382,19 +1210,11 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>403</v>
-      </c>
-      <c r="J25" t="n">
-        <v>407</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1429,13 +1249,9 @@
         <v>403</v>
       </c>
       <c r="J26" t="n">
-        <v>407</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1470,11 +1286,11 @@
         <v>403</v>
       </c>
       <c r="J27" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1511,11 +1327,11 @@
         <v>403</v>
       </c>
       <c r="J28" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1552,7 +1368,7 @@
         <v>401</v>
       </c>
       <c r="J29" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1593,7 +1409,7 @@
         <v>401</v>
       </c>
       <c r="J30" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1634,7 +1450,7 @@
         <v>401</v>
       </c>
       <c r="J31" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1675,7 +1491,7 @@
         <v>400</v>
       </c>
       <c r="J32" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1716,7 +1532,7 @@
         <v>399</v>
       </c>
       <c r="J33" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1757,7 +1573,7 @@
         <v>398</v>
       </c>
       <c r="J34" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1798,7 +1614,7 @@
         <v>397</v>
       </c>
       <c r="J35" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1839,7 +1655,7 @@
         <v>396</v>
       </c>
       <c r="J36" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1880,7 +1696,7 @@
         <v>396</v>
       </c>
       <c r="J37" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1921,7 +1737,7 @@
         <v>396</v>
       </c>
       <c r="J38" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1962,7 +1778,7 @@
         <v>396</v>
       </c>
       <c r="J39" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2003,7 +1819,7 @@
         <v>394</v>
       </c>
       <c r="J40" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2044,7 +1860,7 @@
         <v>390</v>
       </c>
       <c r="J41" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2085,7 +1901,7 @@
         <v>391</v>
       </c>
       <c r="J42" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2126,7 +1942,7 @@
         <v>391</v>
       </c>
       <c r="J43" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2167,7 +1983,7 @@
         <v>392</v>
       </c>
       <c r="J44" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2208,7 +2024,7 @@
         <v>393</v>
       </c>
       <c r="J45" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2249,7 +2065,7 @@
         <v>393</v>
       </c>
       <c r="J46" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2290,7 +2106,7 @@
         <v>392</v>
       </c>
       <c r="J47" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2331,7 +2147,7 @@
         <v>398</v>
       </c>
       <c r="J48" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2372,7 +2188,7 @@
         <v>396</v>
       </c>
       <c r="J49" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2413,7 +2229,7 @@
         <v>397</v>
       </c>
       <c r="J50" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2454,7 +2270,7 @@
         <v>399</v>
       </c>
       <c r="J51" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2495,7 +2311,7 @@
         <v>400</v>
       </c>
       <c r="J52" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2536,7 +2352,7 @@
         <v>400</v>
       </c>
       <c r="J53" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2577,7 +2393,7 @@
         <v>399</v>
       </c>
       <c r="J54" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2618,7 +2434,7 @@
         <v>397</v>
       </c>
       <c r="J55" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2659,7 +2475,7 @@
         <v>397</v>
       </c>
       <c r="J56" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2700,7 +2516,7 @@
         <v>396</v>
       </c>
       <c r="J57" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2741,7 +2557,7 @@
         <v>397</v>
       </c>
       <c r="J58" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2782,7 +2598,7 @@
         <v>397</v>
       </c>
       <c r="J59" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2823,7 +2639,7 @@
         <v>398</v>
       </c>
       <c r="J60" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2864,7 +2680,7 @@
         <v>393</v>
       </c>
       <c r="J61" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2905,7 +2721,7 @@
         <v>395</v>
       </c>
       <c r="J62" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2946,7 +2762,7 @@
         <v>394</v>
       </c>
       <c r="J63" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2987,7 +2803,7 @@
         <v>394</v>
       </c>
       <c r="J64" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3028,7 +2844,7 @@
         <v>388</v>
       </c>
       <c r="J65" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3069,7 +2885,7 @@
         <v>392</v>
       </c>
       <c r="J66" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3110,7 +2926,7 @@
         <v>392</v>
       </c>
       <c r="J67" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3151,7 +2967,7 @@
         <v>392</v>
       </c>
       <c r="J68" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3192,7 +3008,7 @@
         <v>393</v>
       </c>
       <c r="J69" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3233,7 +3049,7 @@
         <v>392</v>
       </c>
       <c r="J70" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3274,7 +3090,7 @@
         <v>392</v>
       </c>
       <c r="J71" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3315,7 +3131,7 @@
         <v>395</v>
       </c>
       <c r="J72" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3356,7 +3172,7 @@
         <v>392</v>
       </c>
       <c r="J73" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3397,7 +3213,7 @@
         <v>395</v>
       </c>
       <c r="J74" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3438,7 +3254,7 @@
         <v>395</v>
       </c>
       <c r="J75" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3479,7 +3295,7 @@
         <v>396</v>
       </c>
       <c r="J76" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3520,7 +3336,7 @@
         <v>398</v>
       </c>
       <c r="J77" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3561,7 +3377,7 @@
         <v>400</v>
       </c>
       <c r="J78" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3602,7 +3418,7 @@
         <v>400</v>
       </c>
       <c r="J79" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3643,7 +3459,7 @@
         <v>401</v>
       </c>
       <c r="J80" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3684,7 +3500,7 @@
         <v>401</v>
       </c>
       <c r="J81" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3725,7 +3541,7 @@
         <v>401</v>
       </c>
       <c r="J82" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3766,7 +3582,7 @@
         <v>401</v>
       </c>
       <c r="J83" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3807,7 +3623,7 @@
         <v>401</v>
       </c>
       <c r="J84" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3848,7 +3664,7 @@
         <v>401</v>
       </c>
       <c r="J85" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3889,7 +3705,7 @@
         <v>401</v>
       </c>
       <c r="J86" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3930,7 +3746,7 @@
         <v>401</v>
       </c>
       <c r="J87" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3971,7 +3787,7 @@
         <v>401</v>
       </c>
       <c r="J88" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -4012,7 +3828,7 @@
         <v>400</v>
       </c>
       <c r="J89" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4053,7 +3869,7 @@
         <v>400</v>
       </c>
       <c r="J90" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4094,7 +3910,7 @@
         <v>396</v>
       </c>
       <c r="J91" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4135,7 +3951,7 @@
         <v>395</v>
       </c>
       <c r="J92" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4176,7 +3992,7 @@
         <v>402</v>
       </c>
       <c r="J93" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4217,7 +4033,7 @@
         <v>401</v>
       </c>
       <c r="J94" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4258,7 +4074,7 @@
         <v>398</v>
       </c>
       <c r="J95" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4299,7 +4115,7 @@
         <v>399</v>
       </c>
       <c r="J96" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4340,7 +4156,7 @@
         <v>399</v>
       </c>
       <c r="J97" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4381,7 +4197,7 @@
         <v>399</v>
       </c>
       <c r="J98" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4422,7 +4238,7 @@
         <v>393</v>
       </c>
       <c r="J99" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4463,7 +4279,7 @@
         <v>396</v>
       </c>
       <c r="J100" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4504,7 +4320,7 @@
         <v>400</v>
       </c>
       <c r="J101" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4545,7 +4361,7 @@
         <v>404</v>
       </c>
       <c r="J102" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4586,7 +4402,7 @@
         <v>410</v>
       </c>
       <c r="J103" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4621,13 +4437,11 @@
         <v>-1287532.826207213</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4662,13 +4476,11 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4703,13 +4515,11 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4744,13 +4554,11 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4785,13 +4593,11 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4826,13 +4632,11 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4867,13 +4671,11 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4908,13 +4710,11 @@
         <v>858093.6179927869</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4949,13 +4749,11 @@
         <v>-566906.3820072131</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>418</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4990,13 +4788,11 @@
         <v>-566906.3820072131</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -5031,13 +4827,11 @@
         <v>-2535306.382007213</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -5072,13 +4866,11 @@
         <v>-2535306.382007213</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5113,13 +4905,11 @@
         <v>-3907206.382007213</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5154,13 +4944,11 @@
         <v>-2966629.170407213</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5195,13 +4983,11 @@
         <v>-2966629.170407213</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5236,13 +5022,11 @@
         <v>-496029.1704072133</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5277,13 +5061,11 @@
         <v>-496029.1704072133</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5322,7 +5104,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5361,7 +5143,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5400,7 +5182,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5439,7 +5221,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5478,7 +5260,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5513,13 +5295,11 @@
         <v>-1156029.170407213</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5554,13 +5334,11 @@
         <v>-1168885.487907213</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5595,13 +5373,11 @@
         <v>-1168884.487907213</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5636,13 +5412,11 @@
         <v>-1169252.357407213</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5677,13 +5451,11 @@
         <v>-1169251.357407213</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5718,13 +5490,11 @@
         <v>-1163588.187307213</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>404</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5759,13 +5529,11 @@
         <v>-1163588.187307213</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5800,13 +5568,11 @@
         <v>-1163588.187307213</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5841,13 +5607,11 @@
         <v>-1166749.494907213</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5882,13 +5646,11 @@
         <v>-1166976.988007213</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5923,13 +5685,11 @@
         <v>-1167417.222507213</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>402</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5964,13 +5724,11 @@
         <v>-1167404.758507213</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -6005,13 +5763,11 @@
         <v>-1167404.758507213</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -6050,7 +5806,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -6085,13 +5841,11 @@
         <v>-1178777.641607213</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6126,13 +5880,11 @@
         <v>-1178776.641607213</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6167,13 +5919,11 @@
         <v>-1178766.641607213</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6208,13 +5958,11 @@
         <v>-1178765.641607213</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6249,13 +5997,11 @@
         <v>-1178765.641607213</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6290,13 +6036,11 @@
         <v>-1178765.641607213</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6335,7 +6079,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6374,7 +6118,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6409,13 +6153,11 @@
         <v>-1179798.040207213</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6450,13 +6192,11 @@
         <v>-1180316.384607213</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6491,13 +6231,11 @@
         <v>-1181952.954807213</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>401</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6536,7 +6274,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6571,13 +6309,11 @@
         <v>-1181952.954807213</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6616,7 +6352,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6655,7 +6391,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6694,7 +6430,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6733,7 +6469,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6772,7 +6508,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6811,7 +6547,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6850,7 +6586,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6889,7 +6625,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6928,7 +6664,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6967,7 +6703,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -7006,7 +6742,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -7045,7 +6781,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -7084,7 +6820,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -7123,7 +6859,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -7162,7 +6898,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7201,7 +6937,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7240,7 +6976,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7279,7 +7015,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7318,7 +7054,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7357,7 +7093,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7396,7 +7132,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7435,7 +7171,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7474,7 +7210,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7513,7 +7249,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7552,7 +7288,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7591,7 +7327,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7630,7 +7366,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7665,13 +7401,11 @@
         <v>-1180729.804880414</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7706,13 +7440,11 @@
         <v>-1180729.804880414</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7747,13 +7479,11 @@
         <v>-1180728.604880414</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7788,13 +7518,11 @@
         <v>-1180140.371565955</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>406</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7829,13 +7557,11 @@
         <v>-1145970.968265955</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7870,13 +7596,11 @@
         <v>-1145970.968265955</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7911,13 +7635,11 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7952,13 +7674,11 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7993,13 +7713,11 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -8034,13 +7752,11 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -8075,13 +7791,11 @@
         <v>-1293971.001065955</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -8116,13 +7830,11 @@
         <v>-1254042.128865954</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -8157,13 +7869,11 @@
         <v>-1254042.128865954</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>413</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8202,7 +7912,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8237,13 +7947,11 @@
         <v>-1204125.550865954</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8282,7 +7990,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8321,7 +8029,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8360,7 +8068,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8399,7 +8107,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8438,7 +8146,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8477,7 +8185,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8516,7 +8224,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8555,7 +8263,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8594,7 +8302,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8633,7 +8341,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8672,7 +8380,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8711,7 +8419,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8750,7 +8458,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8789,7 +8497,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8828,7 +8536,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8867,7 +8575,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8902,11 +8610,13 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>405</v>
+      </c>
       <c r="J211" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8941,11 +8651,13 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>405</v>
+      </c>
       <c r="J212" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8980,11 +8692,13 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>409</v>
+      </c>
       <c r="J213" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -9019,11 +8733,13 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>409</v>
+      </c>
       <c r="J214" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -9058,11 +8774,13 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>409</v>
+      </c>
       <c r="J215" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -9097,11 +8815,13 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>409</v>
+      </c>
       <c r="J216" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -9136,11 +8856,13 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>409</v>
+      </c>
       <c r="J217" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -9181,7 +8903,7 @@
         <v>409</v>
       </c>
       <c r="J218" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -9222,7 +8944,7 @@
         <v>411</v>
       </c>
       <c r="J219" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9257,11 +8979,13 @@
         <v>-1554480.222062107</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>411</v>
+      </c>
       <c r="J220" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9300,7 +9024,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9339,7 +9063,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9378,7 +9102,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9417,7 +9141,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9456,7 +9180,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9495,7 +9219,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9534,7 +9258,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9573,7 +9297,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9612,7 +9336,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9651,7 +9375,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9690,7 +9414,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9729,7 +9453,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9768,7 +9492,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9807,7 +9531,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9846,7 +9570,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9885,7 +9609,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9924,7 +9648,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9963,7 +9687,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -10002,7 +9726,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -10041,7 +9765,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -10080,7 +9804,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -10119,7 +9843,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -10158,7 +9882,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -10197,7 +9921,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10236,7 +9960,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10275,7 +9999,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10314,7 +10038,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10349,21 +10073,23 @@
         <v>-1149474.621269194</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>1.327506203473946</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1.045</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10388,17 +10114,11 @@
         <v>-1108600.028664754</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>407</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10427,17 +10147,11 @@
         <v>-1087497.331593446</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>407</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10466,17 +10180,11 @@
         <v>-1090545.696893446</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>407</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10505,17 +10213,11 @@
         <v>-1081881.984014614</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>407</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10544,17 +10246,11 @@
         <v>-1062271.873214614</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>407</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10583,17 +10279,11 @@
         <v>-1020180.660590362</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>407</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10622,17 +10312,11 @@
         <v>-990893.0172874634</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>407</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10661,17 +10345,11 @@
         <v>-1006538.944893875</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>407</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10700,17 +10378,11 @@
         <v>-1039656.269700199</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>407</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10739,17 +10411,11 @@
         <v>-1028069.094188781</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>407</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10778,17 +10444,11 @@
         <v>-1028888.385288781</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>407</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10817,17 +10477,11 @@
         <v>-947412.2939892304</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>407</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10856,17 +10510,11 @@
         <v>-895324.5931841244</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>407</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10898,14 +10546,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>407</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10937,14 +10579,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>407</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10973,23 +10609,15 @@
         <v>-953186.9672847895</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>407</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
-        <v>1.501142506142506</v>
-      </c>
-      <c r="M264" t="n">
-        <v>1.017241379310345</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11014,7 +10642,7 @@
         <v>-1004241.889025662</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -11047,7 +10675,7 @@
         <v>-1015820.223611956</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -11080,7 +10708,7 @@
         <v>-1084021.921125506</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -11113,7 +10741,7 @@
         <v>-1173194.123325506</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -11146,7 +10774,7 @@
         <v>-1251185.644425506</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -11179,7 +10807,7 @@
         <v>-1210703.411225506</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -11212,7 +10840,7 @@
         <v>-1326240.944325506</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -11278,7 +10906,7 @@
         <v>-1262900.231090198</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11311,7 +10939,7 @@
         <v>-1297217.781190198</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11344,7 +10972,7 @@
         <v>-1289145.012678967</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11377,7 +11005,7 @@
         <v>-1195020.296776312</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11410,7 +11038,7 @@
         <v>-1209478.903076312</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11443,7 +11071,7 @@
         <v>-1195894.466276312</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11509,7 +11137,7 @@
         <v>-1201451.080797698</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11542,7 +11170,7 @@
         <v>-1204840.300892493</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11575,7 +11203,7 @@
         <v>-1196945.255992493</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11608,7 +11236,7 @@
         <v>-1134005.329818511</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11641,7 +11269,7 @@
         <v>-1131703.710418511</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11707,7 +11335,7 @@
         <v>-1118851.945891554</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11740,7 +11368,7 @@
         <v>-1097363.426791554</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11773,7 +11401,7 @@
         <v>-1132858.896091554</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11806,7 +11434,7 @@
         <v>-1105713.602891554</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11839,7 +11467,7 @@
         <v>-1090996.467175822</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11872,7 +11500,7 @@
         <v>-1096902.589175822</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -12037,7 +11665,7 @@
         <v>-1127423.616139459</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12070,7 +11698,7 @@
         <v>-1187408.433339459</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -12103,7 +11731,7 @@
         <v>-1158791.044539459</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -12136,7 +11764,7 @@
         <v>-1166604.028639459</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12169,7 +11797,7 @@
         <v>-1160373.635639459</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12202,7 +11830,7 @@
         <v>-1175456.321239459</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12235,7 +11863,7 @@
         <v>-1200068.521139459</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12268,7 +11896,7 @@
         <v>-1212592.539339459</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12301,7 +11929,7 @@
         <v>-1229262.715339459</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12334,7 +11962,7 @@
         <v>-1269998.061139459</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12367,7 +11995,7 @@
         <v>-1185062.595539459</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12400,7 +12028,7 @@
         <v>-1204124.481912404</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12433,7 +12061,7 @@
         <v>-1183168.329228321</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -22608,6 +22236,6 @@
       <c r="M616" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest DAD.xlsx
+++ b/BackTest/2019-10-31 BackTest DAD.xlsx
@@ -1243,14 +1243,10 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>403</v>
-      </c>
-      <c r="J26" t="n">
-        <v>403</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1280,19 +1276,11 @@
         <v>-1267809.969573206</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>403</v>
-      </c>
-      <c r="J27" t="n">
-        <v>403</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1321,19 +1309,11 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>403</v>
-      </c>
-      <c r="J28" t="n">
-        <v>403</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1362,19 +1342,11 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>401</v>
-      </c>
-      <c r="J29" t="n">
-        <v>403</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1403,19 +1375,11 @@
         <v>-1270264.206773206</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>401</v>
-      </c>
-      <c r="J30" t="n">
-        <v>403</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1444,19 +1408,11 @@
         <v>-1274341.902873206</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>401</v>
-      </c>
-      <c r="J31" t="n">
-        <v>403</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1485,19 +1441,11 @@
         <v>-1274343.198773206</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>400</v>
-      </c>
-      <c r="J32" t="n">
-        <v>403</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1526,19 +1474,11 @@
         <v>-1279766.784473206</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>399</v>
-      </c>
-      <c r="J33" t="n">
-        <v>403</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1567,19 +1507,11 @@
         <v>-1280237.292473206</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>398</v>
-      </c>
-      <c r="J34" t="n">
-        <v>403</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1608,19 +1540,11 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>397</v>
-      </c>
-      <c r="J35" t="n">
-        <v>403</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1649,19 +1573,11 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>396</v>
-      </c>
-      <c r="J36" t="n">
-        <v>403</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1690,19 +1606,11 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>396</v>
-      </c>
-      <c r="J37" t="n">
-        <v>403</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1639,11 @@
         <v>-1291092.819273206</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>396</v>
-      </c>
-      <c r="J38" t="n">
-        <v>403</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1772,19 +1672,11 @@
         <v>-1291095.771673206</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>396</v>
-      </c>
-      <c r="J39" t="n">
-        <v>403</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1813,19 +1705,11 @@
         <v>-1307685.474673206</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>394</v>
-      </c>
-      <c r="J40" t="n">
-        <v>403</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1854,19 +1738,11 @@
         <v>-1307512.218073206</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>390</v>
-      </c>
-      <c r="J41" t="n">
-        <v>403</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1895,19 +1771,11 @@
         <v>-1307512.218073206</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>391</v>
-      </c>
-      <c r="J42" t="n">
-        <v>403</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1942,13 +1810,9 @@
         <v>391</v>
       </c>
       <c r="J43" t="n">
-        <v>403</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1983,11 +1847,11 @@
         <v>392</v>
       </c>
       <c r="J44" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2024,11 +1888,11 @@
         <v>393</v>
       </c>
       <c r="J45" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2065,11 +1929,11 @@
         <v>393</v>
       </c>
       <c r="J46" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2106,7 +1970,7 @@
         <v>392</v>
       </c>
       <c r="J47" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2147,7 +2011,7 @@
         <v>398</v>
       </c>
       <c r="J48" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2188,7 +2052,7 @@
         <v>396</v>
       </c>
       <c r="J49" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2229,7 +2093,7 @@
         <v>397</v>
       </c>
       <c r="J50" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2270,7 +2134,7 @@
         <v>399</v>
       </c>
       <c r="J51" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2311,7 +2175,7 @@
         <v>400</v>
       </c>
       <c r="J52" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2352,7 +2216,7 @@
         <v>400</v>
       </c>
       <c r="J53" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2393,7 +2257,7 @@
         <v>399</v>
       </c>
       <c r="J54" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2434,7 +2298,7 @@
         <v>397</v>
       </c>
       <c r="J55" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2475,7 +2339,7 @@
         <v>397</v>
       </c>
       <c r="J56" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2516,7 +2380,7 @@
         <v>396</v>
       </c>
       <c r="J57" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2557,7 +2421,7 @@
         <v>397</v>
       </c>
       <c r="J58" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2598,7 +2462,7 @@
         <v>397</v>
       </c>
       <c r="J59" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2639,7 +2503,7 @@
         <v>398</v>
       </c>
       <c r="J60" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2680,7 +2544,7 @@
         <v>393</v>
       </c>
       <c r="J61" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2721,7 +2585,7 @@
         <v>395</v>
       </c>
       <c r="J62" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2762,7 +2626,7 @@
         <v>394</v>
       </c>
       <c r="J63" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2803,7 +2667,7 @@
         <v>394</v>
       </c>
       <c r="J64" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2844,7 +2708,7 @@
         <v>388</v>
       </c>
       <c r="J65" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2885,7 +2749,7 @@
         <v>392</v>
       </c>
       <c r="J66" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2926,7 +2790,7 @@
         <v>392</v>
       </c>
       <c r="J67" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2967,7 +2831,7 @@
         <v>392</v>
       </c>
       <c r="J68" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3008,7 +2872,7 @@
         <v>393</v>
       </c>
       <c r="J69" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3049,7 +2913,7 @@
         <v>392</v>
       </c>
       <c r="J70" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3090,7 +2954,7 @@
         <v>392</v>
       </c>
       <c r="J71" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3131,7 +2995,7 @@
         <v>395</v>
       </c>
       <c r="J72" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3172,7 +3036,7 @@
         <v>392</v>
       </c>
       <c r="J73" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3213,7 +3077,7 @@
         <v>395</v>
       </c>
       <c r="J74" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3254,7 +3118,7 @@
         <v>395</v>
       </c>
       <c r="J75" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3295,7 +3159,7 @@
         <v>396</v>
       </c>
       <c r="J76" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3336,7 +3200,7 @@
         <v>398</v>
       </c>
       <c r="J77" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3377,7 +3241,7 @@
         <v>400</v>
       </c>
       <c r="J78" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3418,7 +3282,7 @@
         <v>400</v>
       </c>
       <c r="J79" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3459,7 +3323,7 @@
         <v>401</v>
       </c>
       <c r="J80" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3500,7 +3364,7 @@
         <v>401</v>
       </c>
       <c r="J81" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3541,7 +3405,7 @@
         <v>401</v>
       </c>
       <c r="J82" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3582,7 +3446,7 @@
         <v>401</v>
       </c>
       <c r="J83" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3623,7 +3487,7 @@
         <v>401</v>
       </c>
       <c r="J84" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3664,7 +3528,7 @@
         <v>401</v>
       </c>
       <c r="J85" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3705,7 +3569,7 @@
         <v>401</v>
       </c>
       <c r="J86" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3746,7 +3610,7 @@
         <v>401</v>
       </c>
       <c r="J87" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3787,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="J88" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3828,7 +3692,7 @@
         <v>400</v>
       </c>
       <c r="J89" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3869,7 +3733,7 @@
         <v>400</v>
       </c>
       <c r="J90" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3910,7 +3774,7 @@
         <v>396</v>
       </c>
       <c r="J91" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3951,7 +3815,7 @@
         <v>395</v>
       </c>
       <c r="J92" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3992,7 +3856,7 @@
         <v>402</v>
       </c>
       <c r="J93" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4033,7 +3897,7 @@
         <v>401</v>
       </c>
       <c r="J94" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4074,7 +3938,7 @@
         <v>398</v>
       </c>
       <c r="J95" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4115,7 +3979,7 @@
         <v>399</v>
       </c>
       <c r="J96" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4156,7 +4020,7 @@
         <v>399</v>
       </c>
       <c r="J97" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4197,7 +4061,7 @@
         <v>399</v>
       </c>
       <c r="J98" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4238,7 +4102,7 @@
         <v>393</v>
       </c>
       <c r="J99" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4279,7 +4143,7 @@
         <v>396</v>
       </c>
       <c r="J100" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4320,7 +4184,7 @@
         <v>400</v>
       </c>
       <c r="J101" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4361,7 +4225,7 @@
         <v>404</v>
       </c>
       <c r="J102" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4402,7 +4266,7 @@
         <v>410</v>
       </c>
       <c r="J103" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4441,7 +4305,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4480,7 +4344,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4519,7 +4383,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4558,7 +4422,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4597,7 +4461,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4636,7 +4500,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4675,7 +4539,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4714,7 +4578,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4753,7 +4617,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4792,7 +4656,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4831,7 +4695,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4870,7 +4734,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4909,7 +4773,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4948,7 +4812,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4987,7 +4851,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5026,7 +4890,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5065,7 +4929,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5104,7 +4968,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5143,7 +5007,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5182,7 +5046,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5221,7 +5085,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5260,7 +5124,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5299,7 +5163,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5338,7 +5202,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5377,7 +5241,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5416,7 +5280,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5455,7 +5319,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5494,7 +5358,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5533,7 +5397,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5572,7 +5436,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5611,7 +5475,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5650,7 +5514,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5689,7 +5553,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5728,7 +5592,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5767,7 +5631,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5806,7 +5670,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5845,7 +5709,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5884,7 +5748,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5923,7 +5787,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5962,7 +5826,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6001,7 +5865,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6040,7 +5904,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6079,7 +5943,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6118,7 +5982,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6157,7 +6021,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6196,7 +6060,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6235,7 +6099,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6274,7 +6138,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6313,7 +6177,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6352,7 +6216,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6391,7 +6255,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6430,7 +6294,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6469,7 +6333,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6508,7 +6372,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6547,7 +6411,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6586,7 +6450,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6625,7 +6489,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6664,7 +6528,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6703,7 +6567,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6742,7 +6606,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6781,7 +6645,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6820,7 +6684,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6859,7 +6723,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6898,7 +6762,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6937,7 +6801,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6976,7 +6840,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7015,7 +6879,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7054,7 +6918,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7093,7 +6957,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7132,7 +6996,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7171,7 +7035,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7210,7 +7074,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7249,7 +7113,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7288,7 +7152,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7327,7 +7191,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7366,7 +7230,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7405,7 +7269,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7444,7 +7308,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7483,7 +7347,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7522,7 +7386,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7561,7 +7425,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7600,7 +7464,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7639,7 +7503,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7678,7 +7542,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7717,7 +7581,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7756,7 +7620,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7795,7 +7659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7834,7 +7698,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7873,7 +7737,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7912,7 +7776,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7951,7 +7815,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7990,7 +7854,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8029,7 +7893,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8068,7 +7932,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8107,7 +7971,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8146,7 +8010,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8185,7 +8049,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8224,7 +8088,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8263,7 +8127,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8302,7 +8166,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8341,7 +8205,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8380,7 +8244,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8419,7 +8283,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8458,7 +8322,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8497,7 +8361,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8536,7 +8400,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8575,7 +8439,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8610,13 +8474,11 @@
         <v>-1682751.285165954</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8651,13 +8513,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8692,13 +8552,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8733,13 +8591,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8774,13 +8630,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8815,13 +8669,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8856,13 +8708,11 @@
         <v>-1667424.460965954</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8897,13 +8747,11 @@
         <v>-1572969.040865954</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8938,13 +8786,11 @@
         <v>-1572969.040865954</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8979,13 +8825,11 @@
         <v>-1554480.222062107</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9024,7 +8868,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9063,7 +8907,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9102,7 +8946,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9141,7 +8985,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9180,7 +9024,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9219,7 +9063,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9258,7 +9102,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9297,7 +9141,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9336,7 +9180,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9375,7 +9219,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9414,7 +9258,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9453,7 +9297,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9492,7 +9336,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9531,7 +9375,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9570,7 +9414,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9609,7 +9453,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9648,7 +9492,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9687,7 +9531,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9726,7 +9570,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9765,7 +9609,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9804,7 +9648,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9843,7 +9687,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9882,7 +9726,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9921,7 +9765,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9960,7 +9804,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9999,7 +9843,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10038,7 +9882,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10073,23 +9917,21 @@
         <v>-1149474.621269194</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>1.327506203473946</v>
-      </c>
-      <c r="M248" t="n">
-        <v>1.045</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10114,11 +9956,17 @@
         <v>-1108600.028664754</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>391</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10147,11 +9995,17 @@
         <v>-1087497.331593446</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>391</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10180,11 +10034,17 @@
         <v>-1090545.696893446</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>391</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10213,11 +10073,17 @@
         <v>-1081881.984014614</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>391</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10246,11 +10112,17 @@
         <v>-1062271.873214614</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>391</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10279,11 +10151,17 @@
         <v>-1020180.660590362</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>391</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10312,11 +10190,17 @@
         <v>-990893.0172874634</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>391</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10345,11 +10229,17 @@
         <v>-1006538.944893875</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>391</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10378,11 +10268,17 @@
         <v>-1039656.269700199</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>391</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10411,11 +10307,17 @@
         <v>-1028069.094188781</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>391</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10444,11 +10346,17 @@
         <v>-1028888.385288781</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>391</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10477,11 +10385,17 @@
         <v>-947412.2939892304</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>391</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10510,11 +10424,17 @@
         <v>-895324.5931841244</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>391</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10543,15 +10463,23 @@
         <v>-952161.8012534075</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>391</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>1.529526854219949</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1.071794871794872</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10576,7 +10504,7 @@
         <v>-902740.8150751125</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10609,7 +10537,7 @@
         <v>-953186.9672847895</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10642,7 +10570,7 @@
         <v>-1004241.889025662</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10675,7 +10603,7 @@
         <v>-1015820.223611956</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10708,7 +10636,7 @@
         <v>-1084021.921125506</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -11335,7 +11263,7 @@
         <v>-1118851.945891554</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
